--- a/要件定義書/C表作成_調査資料.xlsx
+++ b/要件定義書/C表作成_調査資料.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27375" windowHeight="11715" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27375" windowHeight="11715" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="コマンド単位の工数" sheetId="18" r:id="rId1"/>
@@ -16176,13 +16176,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>290513</xdr:colOff>
+      <xdr:colOff>290514</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>624418</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
@@ -16193,8 +16193,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20864513" y="723900"/>
-          <a:ext cx="3328988" cy="8401050"/>
+          <a:off x="24367597" y="1138767"/>
+          <a:ext cx="8588904" cy="8257116"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -16859,13 +16859,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
+      <xdr:col>48</xdr:col>
       <xdr:colOff>635796</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
+      <xdr:col>57</xdr:col>
       <xdr:colOff>214312</xdr:colOff>
       <xdr:row>94</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -16917,13 +16917,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>384002</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>83965</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
@@ -16974,13 +16974,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>386383</xdr:colOff>
       <xdr:row>89</xdr:row>
       <xdr:rowOff>150019</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>81584</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>45244</xdr:rowOff>
@@ -17031,13 +17031,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>251842</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>157351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>216124</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>79436</xdr:rowOff>
@@ -17092,7 +17092,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>656791</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>135711</xdr:rowOff>
@@ -17146,13 +17146,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>249461</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>156013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>218505</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>78098</xdr:rowOff>
@@ -17215,13 +17215,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>274465</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>17712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>193502</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>217737</xdr:rowOff>
@@ -17280,13 +17280,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
+      <xdr:col>54</xdr:col>
       <xdr:colOff>49349</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>17712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
+      <xdr:col>56</xdr:col>
       <xdr:colOff>654186</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>217737</xdr:rowOff>
@@ -17345,7 +17345,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>214654</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>61892</xdr:rowOff>
@@ -17399,7 +17399,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>130535</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>21411</xdr:rowOff>
@@ -17453,7 +17453,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>152741</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>59511</xdr:rowOff>
@@ -17507,13 +17507,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>505446</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>16374</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>648321</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>197349</xdr:rowOff>
@@ -17564,13 +17564,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>505446</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>135625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>648321</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>68950</xdr:rowOff>
@@ -17621,13 +17621,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>276846</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>7226</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>191121</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>207251</xdr:rowOff>
@@ -17690,13 +17690,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>276846</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>145527</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>191121</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>97902</xdr:rowOff>
@@ -17751,13 +17751,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>276846</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>24614</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>191121</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>224639</xdr:rowOff>
@@ -17816,13 +17816,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>276846</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>162915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>191121</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>115290</xdr:rowOff>
@@ -17873,13 +17873,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>276846</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>133963</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>191121</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>86338</xdr:rowOff>
@@ -17946,13 +17946,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>430906</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>168794</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
+      <xdr:col>56</xdr:col>
       <xdr:colOff>164306</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>61351</xdr:rowOff>
@@ -18019,13 +18019,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>104568</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>36178</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>363399</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>195687</xdr:rowOff>
@@ -18091,13 +18091,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>104568</xdr:colOff>
       <xdr:row>85</xdr:row>
       <xdr:rowOff>52228</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>363399</xdr:colOff>
       <xdr:row>87</xdr:row>
       <xdr:rowOff>211737</xdr:rowOff>
@@ -18163,13 +18163,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>576883</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>576884</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>157351</xdr:rowOff>
@@ -18216,13 +18216,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>576883</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>79436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>576884</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>17712</xdr:rowOff>
@@ -18269,13 +18269,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>576883</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>217737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>576884</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>156013</xdr:rowOff>
@@ -18322,13 +18322,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>216124</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>242219</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>351768</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>17712</xdr:rowOff>
@@ -18375,13 +18375,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>576883</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>217738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>351768</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>156014</xdr:rowOff>
@@ -18430,13 +18430,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>576883</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>78098</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>576884</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>108767</xdr:rowOff>
@@ -18483,13 +18483,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>576884</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>197349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>576884</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>228018</xdr:rowOff>
@@ -18536,13 +18536,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>576884</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>68950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>576884</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>7226</xdr:rowOff>
@@ -18589,13 +18589,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>576884</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>195687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>576884</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>133963</xdr:rowOff>
@@ -18642,13 +18642,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>576884</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>207251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>576884</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>145527</xdr:rowOff>
@@ -18695,13 +18695,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>576884</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>97902</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>576884</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>36178</xdr:rowOff>
@@ -18748,13 +18748,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>576884</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>86338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>576884</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>24614</xdr:rowOff>
@@ -18801,13 +18801,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>576884</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>224639</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>576884</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>162915</xdr:rowOff>
@@ -18854,13 +18854,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>576883</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>115290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>576884</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>53566</xdr:rowOff>
@@ -18907,13 +18907,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>576884</xdr:colOff>
       <xdr:row>87</xdr:row>
       <xdr:rowOff>211737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>576884</xdr:colOff>
       <xdr:row>89</xdr:row>
       <xdr:rowOff>150019</xdr:rowOff>
@@ -18960,13 +18960,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>576884</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>240881</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>218505</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>7226</xdr:rowOff>
@@ -19016,13 +19016,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>251842</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>53566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>216124</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>223301</xdr:rowOff>
@@ -19082,7 +19082,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>228168</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>99992</xdr:rowOff>
@@ -19136,7 +19136,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>221799</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>183335</xdr:rowOff>
@@ -19190,13 +19190,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>276846</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>161577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>191121</xdr:colOff>
       <xdr:row>83</xdr:row>
       <xdr:rowOff>113952</xdr:rowOff>
@@ -19247,13 +19247,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>576883</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>223301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>576884</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>161577</xdr:rowOff>
@@ -19300,13 +19300,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>576884</xdr:colOff>
       <xdr:row>83</xdr:row>
       <xdr:rowOff>113952</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>576884</xdr:colOff>
       <xdr:row>85</xdr:row>
       <xdr:rowOff>52228</xdr:rowOff>
@@ -19353,13 +19353,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>576884</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>138434</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>53</xdr:col>
       <xdr:colOff>216124</xdr:colOff>
       <xdr:row>85</xdr:row>
       <xdr:rowOff>52228</xdr:rowOff>
@@ -19409,13 +19409,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>49</xdr:col>
+      <xdr:col>57</xdr:col>
       <xdr:colOff>671515</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>58</xdr:col>
+      <xdr:col>66</xdr:col>
       <xdr:colOff>250030</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>40822</xdr:rowOff>
@@ -19475,13 +19475,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>264733</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
+      <xdr:col>61</xdr:col>
       <xdr:colOff>650496</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
@@ -19532,13 +19532,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>264733</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>87088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
+      <xdr:col>61</xdr:col>
       <xdr:colOff>650496</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>220438</xdr:rowOff>
@@ -19589,13 +19589,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>160299</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>100323</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
+      <xdr:col>62</xdr:col>
       <xdr:colOff>74573</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>43173</xdr:rowOff>
@@ -19666,13 +19666,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>160299</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>169349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
+      <xdr:col>62</xdr:col>
       <xdr:colOff>74573</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>112199</xdr:rowOff>
@@ -19735,13 +19735,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>160299</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>155927</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
+      <xdr:col>62</xdr:col>
       <xdr:colOff>74573</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>98776</xdr:rowOff>
@@ -19808,13 +19808,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>160299</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>224953</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
+      <xdr:col>62</xdr:col>
       <xdr:colOff>74573</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>167803</xdr:rowOff>
@@ -19873,13 +19873,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>160299</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>84179</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
+      <xdr:col>62</xdr:col>
       <xdr:colOff>74573</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>29750</xdr:rowOff>
@@ -19954,13 +19954,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>54</xdr:col>
+      <xdr:col>62</xdr:col>
       <xdr:colOff>361850</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>203492</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>57</xdr:col>
+      <xdr:col>65</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>96048</xdr:rowOff>
@@ -20035,13 +20035,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
+      <xdr:col>58</xdr:col>
       <xdr:colOff>673481</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>46144</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
+      <xdr:col>62</xdr:col>
       <xdr:colOff>241749</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>202932</xdr:rowOff>
@@ -20107,13 +20107,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
+      <xdr:col>58</xdr:col>
       <xdr:colOff>673481</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>49051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
+      <xdr:col>62</xdr:col>
       <xdr:colOff>241749</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>205839</xdr:rowOff>
@@ -20179,13 +20179,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>457615</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>202932</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>457616</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>84179</xdr:rowOff>
@@ -20232,13 +20232,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>457615</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>43173</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>457615</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>169349</xdr:rowOff>
@@ -20285,13 +20285,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>457616</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>164896</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>457616</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>46144</xdr:rowOff>
@@ -20338,13 +20338,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>457615</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>29750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>457615</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>155927</xdr:rowOff>
@@ -20391,13 +20391,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>457615</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>98776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>457615</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>224953</xdr:rowOff>
@@ -20444,13 +20444,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>457615</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>167803</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>457616</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>49051</xdr:rowOff>
@@ -20497,13 +20497,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>457615</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>205839</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>457616</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>87088</xdr:rowOff>
@@ -20550,13 +20550,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>59</xdr:col>
+      <xdr:col>67</xdr:col>
       <xdr:colOff>316709</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>64</xdr:col>
+      <xdr:col>72</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -20612,13 +20612,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>60</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>422673</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>63</xdr:col>
+      <xdr:col>71</xdr:col>
       <xdr:colOff>122636</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
@@ -20669,13 +20669,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>60</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>425054</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>69058</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>63</xdr:col>
+      <xdr:col>71</xdr:col>
       <xdr:colOff>120255</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>211933</xdr:rowOff>
@@ -20726,13 +20726,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>60</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>544117</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>186214</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>63</xdr:col>
+      <xdr:col>71</xdr:col>
       <xdr:colOff>1192</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>119539</xdr:rowOff>
@@ -20824,13 +20824,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>60</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>544117</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>86678</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>63</xdr:col>
+      <xdr:col>71</xdr:col>
       <xdr:colOff>1192</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>24768</xdr:rowOff>
@@ -20928,13 +20928,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>60</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>315517</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>239557</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>63</xdr:col>
+      <xdr:col>71</xdr:col>
       <xdr:colOff>229792</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>182407</xdr:rowOff>
@@ -20989,13 +20989,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>60</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>315517</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>149546</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>63</xdr:col>
+      <xdr:col>71</xdr:col>
       <xdr:colOff>229792</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>101921</xdr:rowOff>
@@ -21054,13 +21054,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>61</xdr:col>
+      <xdr:col>69</xdr:col>
       <xdr:colOff>615555</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
+      <xdr:col>69</xdr:col>
       <xdr:colOff>615555</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>30957</xdr:rowOff>
@@ -21107,13 +21107,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>61</xdr:col>
+      <xdr:col>69</xdr:col>
       <xdr:colOff>615390</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>119539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
+      <xdr:col>69</xdr:col>
       <xdr:colOff>615719</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>204312</xdr:rowOff>
@@ -21157,13 +21157,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>61</xdr:col>
+      <xdr:col>69</xdr:col>
       <xdr:colOff>615555</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>24768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
+      <xdr:col>69</xdr:col>
       <xdr:colOff>615555</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>239557</xdr:rowOff>
@@ -21210,13 +21210,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>61</xdr:col>
+      <xdr:col>69</xdr:col>
       <xdr:colOff>615555</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>182407</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
+      <xdr:col>69</xdr:col>
       <xdr:colOff>615555</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>149546</xdr:rowOff>
@@ -21263,13 +21263,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>61</xdr:col>
+      <xdr:col>69</xdr:col>
       <xdr:colOff>615555</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>101921</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
+      <xdr:col>69</xdr:col>
       <xdr:colOff>615555</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>69058</xdr:rowOff>
@@ -21316,13 +21316,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>65</xdr:col>
+      <xdr:col>73</xdr:col>
       <xdr:colOff>338140</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>228601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>72</xdr:col>
+      <xdr:col>80</xdr:col>
       <xdr:colOff>457199</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
@@ -21378,13 +21378,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>68</xdr:col>
+      <xdr:col>76</xdr:col>
       <xdr:colOff>479499</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>71</xdr:col>
+      <xdr:col>79</xdr:col>
       <xdr:colOff>185957</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
@@ -21435,13 +21435,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>68</xdr:col>
+      <xdr:col>76</xdr:col>
       <xdr:colOff>481880</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>133353</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>71</xdr:col>
+      <xdr:col>79</xdr:col>
       <xdr:colOff>183576</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>19053</xdr:rowOff>
@@ -21492,13 +21492,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>68</xdr:col>
+      <xdr:col>76</xdr:col>
       <xdr:colOff>375590</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>157802</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>71</xdr:col>
+      <xdr:col>79</xdr:col>
       <xdr:colOff>289866</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>119702</xdr:rowOff>
@@ -21631,13 +21631,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>68</xdr:col>
+      <xdr:col>76</xdr:col>
       <xdr:colOff>251114</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>58429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>71</xdr:col>
+      <xdr:col>79</xdr:col>
       <xdr:colOff>414342</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>193350</xdr:rowOff>
@@ -21709,7 +21709,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>69</xdr:col>
+      <xdr:col>77</xdr:col>
       <xdr:colOff>409580</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>109518</xdr:rowOff>
@@ -21763,7 +21763,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>71</xdr:col>
+      <xdr:col>79</xdr:col>
       <xdr:colOff>355586</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>71418</xdr:rowOff>
@@ -21817,13 +21817,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>68</xdr:col>
+      <xdr:col>76</xdr:col>
       <xdr:colOff>375590</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>132076</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>71</xdr:col>
+      <xdr:col>79</xdr:col>
       <xdr:colOff>289866</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>80121</xdr:rowOff>
@@ -21882,13 +21882,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>65</xdr:col>
+      <xdr:col>73</xdr:col>
       <xdr:colOff>529404</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>171173</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>68</xdr:col>
+      <xdr:col>76</xdr:col>
       <xdr:colOff>262804</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>44680</xdr:rowOff>
@@ -21998,13 +21998,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>68</xdr:col>
+      <xdr:col>76</xdr:col>
       <xdr:colOff>375590</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>18848</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>71</xdr:col>
+      <xdr:col>79</xdr:col>
       <xdr:colOff>289866</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>194628</xdr:rowOff>
@@ -22063,13 +22063,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>69</xdr:col>
+      <xdr:col>77</xdr:col>
       <xdr:colOff>674762</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>193350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>69</xdr:col>
+      <xdr:col>77</xdr:col>
       <xdr:colOff>674762</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>132076</xdr:rowOff>
@@ -22116,13 +22116,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>69</xdr:col>
+      <xdr:col>77</xdr:col>
       <xdr:colOff>674762</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>80121</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>69</xdr:col>
+      <xdr:col>77</xdr:col>
       <xdr:colOff>674762</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>18848</xdr:rowOff>
@@ -22169,13 +22169,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>69</xdr:col>
+      <xdr:col>77</xdr:col>
       <xdr:colOff>674762</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>194628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>69</xdr:col>
+      <xdr:col>77</xdr:col>
       <xdr:colOff>674762</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>133353</xdr:rowOff>
@@ -22222,13 +22222,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>69</xdr:col>
+      <xdr:col>77</xdr:col>
       <xdr:colOff>674762</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>4663</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>71</xdr:col>
+      <xdr:col>79</xdr:col>
       <xdr:colOff>414342</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>18848</xdr:rowOff>
@@ -22278,13 +22278,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>69</xdr:col>
+      <xdr:col>77</xdr:col>
       <xdr:colOff>674762</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>119702</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>69</xdr:col>
+      <xdr:col>77</xdr:col>
       <xdr:colOff>674762</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>58429</xdr:rowOff>
@@ -22331,13 +22331,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>69</xdr:col>
+      <xdr:col>77</xdr:col>
       <xdr:colOff>674762</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>69</xdr:col>
+      <xdr:col>77</xdr:col>
       <xdr:colOff>674762</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>157802</xdr:rowOff>
@@ -22384,13 +22384,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>73</xdr:col>
+      <xdr:col>81</xdr:col>
       <xdr:colOff>340522</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>228601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>78</xdr:col>
+      <xdr:col>86</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -22446,13 +22446,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>74</xdr:col>
+      <xdr:col>82</xdr:col>
       <xdr:colOff>415530</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>77</xdr:col>
+      <xdr:col>85</xdr:col>
       <xdr:colOff>115493</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
@@ -22503,13 +22503,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>74</xdr:col>
+      <xdr:col>82</xdr:col>
       <xdr:colOff>415530</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>235747</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>77</xdr:col>
+      <xdr:col>85</xdr:col>
       <xdr:colOff>115493</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>130972</xdr:rowOff>
@@ -22560,13 +22560,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>74</xdr:col>
+      <xdr:col>82</xdr:col>
       <xdr:colOff>308373</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>155734</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>77</xdr:col>
+      <xdr:col>85</xdr:col>
       <xdr:colOff>222649</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>117634</xdr:rowOff>
@@ -22652,13 +22652,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>74</xdr:col>
+      <xdr:col>82</xdr:col>
       <xdr:colOff>308373</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>54293</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>77</xdr:col>
+      <xdr:col>85</xdr:col>
       <xdr:colOff>222649</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>16193</xdr:rowOff>
@@ -22744,13 +22744,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>74</xdr:col>
+      <xdr:col>82</xdr:col>
       <xdr:colOff>308373</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>200502</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>77</xdr:col>
+      <xdr:col>85</xdr:col>
       <xdr:colOff>222649</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>152877</xdr:rowOff>
@@ -22836,13 +22836,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>74</xdr:col>
+      <xdr:col>82</xdr:col>
       <xdr:colOff>308373</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>89536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>77</xdr:col>
+      <xdr:col>85</xdr:col>
       <xdr:colOff>222649</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>51436</xdr:rowOff>
@@ -22904,13 +22904,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>75</xdr:col>
+      <xdr:col>83</xdr:col>
       <xdr:colOff>608411</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>75</xdr:col>
+      <xdr:col>83</xdr:col>
       <xdr:colOff>608412</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>155734</xdr:rowOff>
@@ -22957,13 +22957,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>75</xdr:col>
+      <xdr:col>83</xdr:col>
       <xdr:colOff>608411</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>117634</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>75</xdr:col>
+      <xdr:col>83</xdr:col>
       <xdr:colOff>608411</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>54293</xdr:rowOff>
@@ -23010,13 +23010,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>75</xdr:col>
+      <xdr:col>83</xdr:col>
       <xdr:colOff>608411</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>16193</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>75</xdr:col>
+      <xdr:col>83</xdr:col>
       <xdr:colOff>608411</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>200502</xdr:rowOff>
@@ -23063,13 +23063,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>75</xdr:col>
+      <xdr:col>83</xdr:col>
       <xdr:colOff>608411</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>152877</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>75</xdr:col>
+      <xdr:col>83</xdr:col>
       <xdr:colOff>608411</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>89536</xdr:rowOff>
@@ -23116,13 +23116,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>75</xdr:col>
+      <xdr:col>83</xdr:col>
       <xdr:colOff>608411</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>51436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>75</xdr:col>
+      <xdr:col>83</xdr:col>
       <xdr:colOff>608412</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>235747</xdr:rowOff>
@@ -23169,16 +23169,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>79</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>90</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>103</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -23187,8 +23187,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="51111150" y="723900"/>
-          <a:ext cx="7715250" cy="21583650"/>
+          <a:off x="59191071" y="1140279"/>
+          <a:ext cx="11419116" cy="19896364"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -23227,13 +23227,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>83</xdr:col>
+      <xdr:col>96</xdr:col>
       <xdr:colOff>108139</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>85</xdr:col>
+      <xdr:col>98</xdr:col>
       <xdr:colOff>493902</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
@@ -23284,16 +23284,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>83</xdr:col>
+      <xdr:col>96</xdr:col>
       <xdr:colOff>108139</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>176215</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>85</xdr:col>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>26536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>98</xdr:col>
       <xdr:colOff>493902</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>71440</xdr:rowOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>166689</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -23302,8 +23302,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="53600539" y="21474115"/>
-          <a:ext cx="1757363" cy="638175"/>
+          <a:off x="66102782" y="20287572"/>
+          <a:ext cx="1746477" cy="630010"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -23341,13 +23341,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>83</xdr:col>
+      <xdr:col>96</xdr:col>
       <xdr:colOff>982</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>153679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>85</xdr:col>
+      <xdr:col>98</xdr:col>
       <xdr:colOff>601058</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>106054</xdr:rowOff>
@@ -23457,13 +23457,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>83</xdr:col>
+      <xdr:col>96</xdr:col>
       <xdr:colOff>982</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>40658</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>85</xdr:col>
+      <xdr:col>98</xdr:col>
       <xdr:colOff>601058</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>2558</xdr:rowOff>
@@ -23549,13 +23549,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>82</xdr:col>
+      <xdr:col>95</xdr:col>
       <xdr:colOff>514505</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>81316</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>86</xdr:col>
+      <xdr:col>99</xdr:col>
       <xdr:colOff>87536</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>240825</xdr:rowOff>
@@ -23621,16 +23621,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>82</xdr:col>
+      <xdr:col>95</xdr:col>
       <xdr:colOff>516886</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>82097</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>86</xdr:col>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>177346</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>99</xdr:col>
       <xdr:colOff>85154</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>241606</xdr:rowOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>91926</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -23639,8 +23639,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="53323486" y="20389397"/>
-          <a:ext cx="2311468" cy="654809"/>
+          <a:off x="65831172" y="19213739"/>
+          <a:ext cx="2289696" cy="649366"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
           <a:avLst>
@@ -23693,13 +23693,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>82</xdr:col>
+      <xdr:col>95</xdr:col>
       <xdr:colOff>340104</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>175429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>86</xdr:col>
+      <xdr:col>99</xdr:col>
       <xdr:colOff>261936</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>77763</xdr:rowOff>
@@ -23761,16 +23761,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>82</xdr:col>
+      <xdr:col>95</xdr:col>
       <xdr:colOff>340104</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>235634</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>86</xdr:col>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>85954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>99</xdr:col>
       <xdr:colOff>261936</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>147493</xdr:rowOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>242742</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -23779,8 +23779,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="53146704" y="19304684"/>
-          <a:ext cx="2665032" cy="654809"/>
+          <a:off x="65654390" y="18142633"/>
+          <a:ext cx="2643260" cy="646645"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
           <a:avLst>
@@ -23845,13 +23845,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>82</xdr:col>
+      <xdr:col>95</xdr:col>
       <xdr:colOff>552243</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>146996</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>86</xdr:col>
+      <xdr:col>99</xdr:col>
       <xdr:colOff>49797</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>113660</xdr:rowOff>
@@ -23956,13 +23956,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>83</xdr:col>
+      <xdr:col>96</xdr:col>
       <xdr:colOff>982</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>12367</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>85</xdr:col>
+      <xdr:col>98</xdr:col>
       <xdr:colOff>601058</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>212392</xdr:rowOff>
@@ -24024,7 +24024,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>83</xdr:col>
+      <xdr:col>96</xdr:col>
       <xdr:colOff>547259</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>226198</xdr:rowOff>
@@ -24078,7 +24078,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>86</xdr:col>
+      <xdr:col>99</xdr:col>
       <xdr:colOff>88453</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>49986</xdr:rowOff>
@@ -24132,13 +24132,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>83</xdr:col>
+      <xdr:col>96</xdr:col>
       <xdr:colOff>982</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>48264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>85</xdr:col>
+      <xdr:col>98</xdr:col>
       <xdr:colOff>601058</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>10164</xdr:rowOff>
@@ -24212,13 +24212,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>83</xdr:col>
+      <xdr:col>96</xdr:col>
       <xdr:colOff>229583</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>192418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>85</xdr:col>
+      <xdr:col>98</xdr:col>
       <xdr:colOff>372458</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>135268</xdr:rowOff>
@@ -24277,96 +24277,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>83</xdr:col>
+      <xdr:col>96</xdr:col>
       <xdr:colOff>982</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>69872</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>85</xdr:col>
+      <xdr:rowOff>64347</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>98</xdr:col>
       <xdr:colOff>601058</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>31772</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="281" name="正方形/長方形 280"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="53493382" y="15176522"/>
-          <a:ext cx="1971676" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>セーフティワーニング</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>画面表示</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>83</xdr:col>
-      <xdr:colOff>982</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>214026</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>85</xdr:col>
-      <xdr:colOff>601058</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>175926</xdr:rowOff>
+      <xdr:rowOff>26246</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -24375,8 +24295,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="53493382" y="16558926"/>
-          <a:ext cx="1971676" cy="952500"/>
+          <a:off x="65995625" y="15426811"/>
+          <a:ext cx="1960790" cy="941614"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -24425,16 +24345,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>83</xdr:col>
+      <xdr:col>96</xdr:col>
       <xdr:colOff>982</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>110530</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>85</xdr:col>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>205780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>98</xdr:col>
       <xdr:colOff>601058</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>62905</xdr:rowOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>158155</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -24443,8 +24363,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="53493382" y="17941330"/>
-          <a:ext cx="1971676" cy="942975"/>
+          <a:off x="65995625" y="16792887"/>
+          <a:ext cx="1960790" cy="932089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -24493,16 +24413,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>86</xdr:col>
+      <xdr:col>99</xdr:col>
       <xdr:colOff>566740</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>214026</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>89</xdr:col>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>64347</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>102</xdr:col>
       <xdr:colOff>481016</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>175926</xdr:rowOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>26246</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -24511,8 +24431,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="56116540" y="16558926"/>
-          <a:ext cx="1971676" cy="952500"/>
+          <a:off x="68602454" y="15426811"/>
+          <a:ext cx="1955348" cy="941614"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -24561,13 +24481,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>84</xdr:col>
+      <xdr:col>97</xdr:col>
       <xdr:colOff>301020</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>113660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>84</xdr:col>
+      <xdr:col>97</xdr:col>
       <xdr:colOff>301020</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>48264</xdr:rowOff>
@@ -24614,16 +24534,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>86</xdr:col>
+      <xdr:col>99</xdr:col>
       <xdr:colOff>49797</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>6503</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>88</xdr:col>
-      <xdr:colOff>180978</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>214026</xdr:rowOff>
+      <xdr:rowOff>7864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>101</xdr:col>
+      <xdr:colOff>183699</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>64347</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -24635,8 +24555,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="55599597" y="11150753"/>
-          <a:ext cx="1502781" cy="5408173"/>
+          <a:off x="68085511" y="11451471"/>
+          <a:ext cx="1494617" cy="3975340"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -24667,13 +24587,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>84</xdr:col>
+      <xdr:col>97</xdr:col>
       <xdr:colOff>301020</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>10164</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>84</xdr:col>
+      <xdr:col>97</xdr:col>
       <xdr:colOff>301021</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>38113</xdr:rowOff>
@@ -24720,29 +24640,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>84</xdr:col>
+      <xdr:col>97</xdr:col>
       <xdr:colOff>301020</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>135268</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>84</xdr:col>
+      <xdr:col>97</xdr:col>
       <xdr:colOff>301021</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>69872</xdr:rowOff>
+      <xdr:rowOff>64347</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="288" name="直線矢印コネクタ 287"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="280" idx="2"/>
-          <a:endCxn id="281" idx="0"/>
+          <a:endCxn id="282" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="54479220" y="14746618"/>
-          <a:ext cx="1" cy="429904"/>
+          <a:off x="66976020" y="15007875"/>
+          <a:ext cx="1" cy="418936"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -24773,69 +24693,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>84</xdr:col>
+      <xdr:col>97</xdr:col>
       <xdr:colOff>301020</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>31772</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>84</xdr:col>
+      <xdr:rowOff>26246</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>97</xdr:col>
       <xdr:colOff>301020</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>214026</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="289" name="直線矢印コネクタ 288"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="281" idx="2"/>
-          <a:endCxn id="282" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="54479220" y="16129022"/>
-          <a:ext cx="0" cy="429904"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>84</xdr:col>
-      <xdr:colOff>301020</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>175926</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>84</xdr:col>
-      <xdr:colOff>301020</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>110530</xdr:rowOff>
+      <xdr:rowOff>205780</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -24847,8 +24714,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54479220" y="17511426"/>
-          <a:ext cx="0" cy="429904"/>
+          <a:off x="66976020" y="16368425"/>
+          <a:ext cx="0" cy="424462"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -24879,16 +24746,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>84</xdr:col>
+      <xdr:col>97</xdr:col>
       <xdr:colOff>301020</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>62905</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>84</xdr:col>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>158155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>97</xdr:col>
       <xdr:colOff>301020</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>235634</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>85954</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -24900,8 +24767,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54479220" y="18884305"/>
-          <a:ext cx="0" cy="420379"/>
+          <a:off x="66976020" y="17724976"/>
+          <a:ext cx="0" cy="417657"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -24932,16 +24799,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>84</xdr:col>
+      <xdr:col>97</xdr:col>
       <xdr:colOff>301020</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>147493</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>84</xdr:col>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>242742</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>97</xdr:col>
       <xdr:colOff>301020</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>82097</xdr:rowOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>177346</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -24953,8 +24820,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54479220" y="19959493"/>
-          <a:ext cx="0" cy="429904"/>
+          <a:off x="66976020" y="18789278"/>
+          <a:ext cx="0" cy="424461"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -24985,16 +24852,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>84</xdr:col>
+      <xdr:col>97</xdr:col>
       <xdr:colOff>301020</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>175926</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>88</xdr:col>
-      <xdr:colOff>180978</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>110530</xdr:rowOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>26246</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>101</xdr:col>
+      <xdr:colOff>183699</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>205780</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -25006,8 +24873,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="55575847" y="16414799"/>
-          <a:ext cx="429904" cy="2623158"/>
+          <a:off x="68065843" y="15278602"/>
+          <a:ext cx="424462" cy="2604108"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -25040,13 +24907,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>84</xdr:col>
+      <xdr:col>97</xdr:col>
       <xdr:colOff>301020</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>212392</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>84</xdr:col>
+      <xdr:col>97</xdr:col>
       <xdr:colOff>301020</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>146996</xdr:rowOff>
@@ -25093,13 +24960,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>84</xdr:col>
+      <xdr:col>97</xdr:col>
       <xdr:colOff>301020</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>77763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>84</xdr:col>
+      <xdr:col>97</xdr:col>
       <xdr:colOff>301020</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>12367</xdr:rowOff>
@@ -25146,13 +25013,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>84</xdr:col>
+      <xdr:col>97</xdr:col>
       <xdr:colOff>301020</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>240825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>84</xdr:col>
+      <xdr:col>97</xdr:col>
       <xdr:colOff>301021</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>175429</xdr:rowOff>
@@ -25199,13 +25066,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>84</xdr:col>
+      <xdr:col>97</xdr:col>
       <xdr:colOff>301020</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>146712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>84</xdr:col>
+      <xdr:col>97</xdr:col>
       <xdr:colOff>301021</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>81316</xdr:rowOff>
@@ -25252,13 +25119,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>84</xdr:col>
+      <xdr:col>97</xdr:col>
       <xdr:colOff>301020</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>106054</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>84</xdr:col>
+      <xdr:col>97</xdr:col>
       <xdr:colOff>301020</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>40658</xdr:rowOff>
@@ -25305,13 +25172,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>84</xdr:col>
+      <xdr:col>97</xdr:col>
       <xdr:colOff>301020</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>84</xdr:col>
+      <xdr:col>97</xdr:col>
       <xdr:colOff>301021</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>153679</xdr:rowOff>
@@ -25358,16 +25225,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>84</xdr:col>
+      <xdr:col>97</xdr:col>
       <xdr:colOff>301020</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>241606</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>84</xdr:col>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>91926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>97</xdr:col>
       <xdr:colOff>301021</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>176215</xdr:rowOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>26536</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -25379,8 +25246,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54479220" y="21044206"/>
-          <a:ext cx="1" cy="429909"/>
+          <a:off x="66976020" y="19863105"/>
+          <a:ext cx="1" cy="424467"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -25411,16 +25278,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>79</xdr:col>
-      <xdr:colOff>616323</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>162208</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>82</xdr:col>
-      <xdr:colOff>526676</xdr:colOff>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>670753</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>80564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>581106</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>57566</xdr:rowOff>
+      <xdr:rowOff>220851</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -25429,15 +25296,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="52566794" y="14987590"/>
-          <a:ext cx="1961029" cy="1071976"/>
+          <a:off x="63263610" y="16177814"/>
+          <a:ext cx="1951425" cy="1120001"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 101147"/>
-            <a:gd name="adj2" fmla="val 80563"/>
-            <a:gd name="adj3" fmla="val 131965"/>
-            <a:gd name="adj4" fmla="val 115048"/>
+            <a:gd name="adj1" fmla="val 54980"/>
+            <a:gd name="adj2" fmla="val 99390"/>
+            <a:gd name="adj3" fmla="val -22330"/>
+            <a:gd name="adj4" fmla="val 140848"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="19050">
@@ -25534,13 +25401,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>92</xdr:col>
+      <xdr:col>105</xdr:col>
       <xdr:colOff>90489</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>228601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>97</xdr:col>
+      <xdr:col>110</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
@@ -25592,13 +25459,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>93</xdr:col>
+      <xdr:col>106</xdr:col>
       <xdr:colOff>559595</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>96</xdr:col>
+      <xdr:col>109</xdr:col>
       <xdr:colOff>259557</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
@@ -25649,13 +25516,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>93</xdr:col>
+      <xdr:col>106</xdr:col>
       <xdr:colOff>559595</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>169072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>96</xdr:col>
+      <xdr:col>109</xdr:col>
       <xdr:colOff>259558</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>64297</xdr:rowOff>
@@ -25706,13 +25573,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>93</xdr:col>
+      <xdr:col>106</xdr:col>
       <xdr:colOff>452439</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>56853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>96</xdr:col>
+      <xdr:col>109</xdr:col>
       <xdr:colOff>366714</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>18753</xdr:rowOff>
@@ -25807,13 +25674,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>93</xdr:col>
+      <xdr:col>106</xdr:col>
       <xdr:colOff>452439</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>113706</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>96</xdr:col>
+      <xdr:col>109</xdr:col>
       <xdr:colOff>366714</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>75606</xdr:rowOff>
@@ -25884,13 +25751,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>93</xdr:col>
+      <xdr:col>106</xdr:col>
       <xdr:colOff>452439</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>236640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>96</xdr:col>
+      <xdr:col>109</xdr:col>
       <xdr:colOff>366714</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>208065</xdr:rowOff>
@@ -25976,13 +25843,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>93</xdr:col>
+      <xdr:col>106</xdr:col>
       <xdr:colOff>681039</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>170559</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>96</xdr:col>
+      <xdr:col>109</xdr:col>
       <xdr:colOff>138113</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>113409</xdr:rowOff>
@@ -26033,13 +25900,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>93</xdr:col>
+      <xdr:col>106</xdr:col>
       <xdr:colOff>452439</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>112221</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>96</xdr:col>
+      <xdr:col>109</xdr:col>
       <xdr:colOff>366714</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>74121</xdr:rowOff>
@@ -26101,13 +25968,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>93</xdr:col>
+      <xdr:col>106</xdr:col>
       <xdr:colOff>452439</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>55368</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>96</xdr:col>
+      <xdr:col>109</xdr:col>
       <xdr:colOff>366714</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>17268</xdr:rowOff>
@@ -26169,13 +26036,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>95</xdr:col>
+      <xdr:col>108</xdr:col>
       <xdr:colOff>66676</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>75606</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>95</xdr:col>
+      <xdr:col>108</xdr:col>
       <xdr:colOff>66677</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>16254</xdr:rowOff>
@@ -26222,13 +26089,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>95</xdr:col>
+      <xdr:col>108</xdr:col>
       <xdr:colOff>66676</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>113409</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>95</xdr:col>
+      <xdr:col>108</xdr:col>
       <xdr:colOff>66677</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>54057</xdr:rowOff>
@@ -26275,13 +26142,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>95</xdr:col>
+      <xdr:col>108</xdr:col>
       <xdr:colOff>66677</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>17268</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>95</xdr:col>
+      <xdr:col>108</xdr:col>
       <xdr:colOff>66677</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>112221</xdr:rowOff>
@@ -26328,13 +26195,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>95</xdr:col>
+      <xdr:col>108</xdr:col>
       <xdr:colOff>66677</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>208065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>95</xdr:col>
+      <xdr:col>108</xdr:col>
       <xdr:colOff>66677</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>55368</xdr:rowOff>
@@ -26381,13 +26248,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>95</xdr:col>
+      <xdr:col>108</xdr:col>
       <xdr:colOff>66677</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>151212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>95</xdr:col>
+      <xdr:col>108</xdr:col>
       <xdr:colOff>66677</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>236640</xdr:rowOff>
@@ -26434,13 +26301,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>95</xdr:col>
+      <xdr:col>108</xdr:col>
       <xdr:colOff>66677</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>18753</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>95</xdr:col>
+      <xdr:col>108</xdr:col>
       <xdr:colOff>66677</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>113706</xdr:rowOff>
@@ -26487,13 +26354,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>95</xdr:col>
+      <xdr:col>108</xdr:col>
       <xdr:colOff>66676</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>95</xdr:col>
+      <xdr:col>108</xdr:col>
       <xdr:colOff>66677</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>56853</xdr:rowOff>
@@ -26540,13 +26407,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>95</xdr:col>
+      <xdr:col>108</xdr:col>
       <xdr:colOff>66677</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>74121</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>95</xdr:col>
+      <xdr:col>108</xdr:col>
       <xdr:colOff>66677</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>169072</xdr:rowOff>
@@ -26593,13 +26460,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>93</xdr:col>
+      <xdr:col>106</xdr:col>
       <xdr:colOff>678658</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>208362</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>96</xdr:col>
+      <xdr:col>109</xdr:col>
       <xdr:colOff>140495</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>151212</xdr:rowOff>
@@ -26658,13 +26525,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>83</xdr:col>
+      <xdr:col>96</xdr:col>
       <xdr:colOff>982</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>184812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>85</xdr:col>
+      <xdr:col>98</xdr:col>
       <xdr:colOff>601058</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>146712</xdr:rowOff>
@@ -26750,13 +26617,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>84</xdr:col>
+      <xdr:col>97</xdr:col>
       <xdr:colOff>301020</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>2558</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>84</xdr:col>
+      <xdr:col>97</xdr:col>
       <xdr:colOff>301020</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>184812</xdr:rowOff>
@@ -26803,13 +26670,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>99</xdr:col>
+      <xdr:col>112</xdr:col>
       <xdr:colOff>300039</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>228601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>108</xdr:col>
+      <xdr:col>121</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -26861,13 +26728,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>100</xdr:col>
+      <xdr:col>113</xdr:col>
       <xdr:colOff>419102</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>103</xdr:col>
+      <xdr:col>116</xdr:col>
       <xdr:colOff>119064</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
@@ -26918,13 +26785,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>100</xdr:col>
+      <xdr:col>113</xdr:col>
       <xdr:colOff>419102</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>64297</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>103</xdr:col>
+      <xdr:col>116</xdr:col>
       <xdr:colOff>119065</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>216697</xdr:rowOff>
@@ -26975,13 +26842,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>100</xdr:col>
+      <xdr:col>113</xdr:col>
       <xdr:colOff>311946</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>62389</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>103</xdr:col>
+      <xdr:col>116</xdr:col>
       <xdr:colOff>226221</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>24289</xdr:rowOff>
@@ -27052,13 +26919,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>100</xdr:col>
+      <xdr:col>113</xdr:col>
       <xdr:colOff>311946</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>124778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>103</xdr:col>
+      <xdr:col>116</xdr:col>
       <xdr:colOff>226221</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>86678</xdr:rowOff>
@@ -27129,13 +26996,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>100</xdr:col>
+      <xdr:col>113</xdr:col>
       <xdr:colOff>311946</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>187167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>103</xdr:col>
+      <xdr:col>116</xdr:col>
       <xdr:colOff>226221</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>149067</xdr:rowOff>
@@ -27206,13 +27073,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>103</xdr:col>
+      <xdr:col>116</xdr:col>
       <xdr:colOff>595212</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>114022</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>107</xdr:col>
+      <xdr:col>120</xdr:col>
       <xdr:colOff>266699</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
@@ -27375,13 +27242,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>100</xdr:col>
+      <xdr:col>113</xdr:col>
       <xdr:colOff>311946</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>1906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>103</xdr:col>
+      <xdr:col>116</xdr:col>
       <xdr:colOff>226221</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>211456</xdr:rowOff>
@@ -27440,13 +27307,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>101</xdr:col>
+      <xdr:col>114</xdr:col>
       <xdr:colOff>611983</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>101</xdr:col>
+      <xdr:col>114</xdr:col>
       <xdr:colOff>611984</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>62389</xdr:rowOff>
@@ -27493,13 +27360,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>101</xdr:col>
+      <xdr:col>114</xdr:col>
       <xdr:colOff>611984</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>24289</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>101</xdr:col>
+      <xdr:col>114</xdr:col>
       <xdr:colOff>611984</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>124778</xdr:rowOff>
@@ -27546,13 +27413,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>101</xdr:col>
+      <xdr:col>114</xdr:col>
       <xdr:colOff>611984</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>86678</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>101</xdr:col>
+      <xdr:col>114</xdr:col>
       <xdr:colOff>611984</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>187167</xdr:rowOff>
@@ -27599,13 +27466,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>101</xdr:col>
+      <xdr:col>114</xdr:col>
       <xdr:colOff>611984</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>149067</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>101</xdr:col>
+      <xdr:col>114</xdr:col>
       <xdr:colOff>611984</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>1906</xdr:rowOff>
@@ -27652,13 +27519,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>101</xdr:col>
+      <xdr:col>114</xdr:col>
       <xdr:colOff>611984</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>211456</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>101</xdr:col>
+      <xdr:col>114</xdr:col>
       <xdr:colOff>611984</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>64297</xdr:rowOff>
@@ -27705,14 +27572,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>109</xdr:col>
-      <xdr:colOff>246462</xdr:colOff>
+      <xdr:col>122</xdr:col>
+      <xdr:colOff>246461</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>115</xdr:col>
-      <xdr:colOff>498873</xdr:colOff>
+      <xdr:col>138</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
@@ -27723,8 +27590,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="71569662" y="723900"/>
-          <a:ext cx="4367211" cy="10401300"/>
+          <a:off x="83250032" y="1140279"/>
+          <a:ext cx="10856968" cy="10287000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -27763,13 +27630,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>111</xdr:col>
+      <xdr:col>124</xdr:col>
       <xdr:colOff>179786</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>113</xdr:col>
+      <xdr:col>126</xdr:col>
       <xdr:colOff>565548</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
@@ -27820,13 +27687,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>111</xdr:col>
+      <xdr:col>124</xdr:col>
       <xdr:colOff>179786</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>216697</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>113</xdr:col>
+      <xdr:col>126</xdr:col>
       <xdr:colOff>565549</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>121447</xdr:rowOff>
@@ -27877,13 +27744,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>111</xdr:col>
+      <xdr:col>124</xdr:col>
       <xdr:colOff>72630</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>236141</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>113</xdr:col>
+      <xdr:col>126</xdr:col>
       <xdr:colOff>672705</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>207566</xdr:rowOff>
@@ -28002,13 +27869,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>112</xdr:col>
+      <xdr:col>125</xdr:col>
       <xdr:colOff>372667</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>112</xdr:col>
+      <xdr:col>125</xdr:col>
       <xdr:colOff>372668</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>236141</xdr:rowOff>
@@ -28055,13 +27922,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>112</xdr:col>
+      <xdr:col>125</xdr:col>
       <xdr:colOff>372668</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>180580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>112</xdr:col>
+      <xdr:col>125</xdr:col>
       <xdr:colOff>372668</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>216697</xdr:rowOff>
@@ -28108,13 +27975,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>111</xdr:col>
+      <xdr:col>124</xdr:col>
       <xdr:colOff>72630</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>241698</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>113</xdr:col>
+      <xdr:col>126</xdr:col>
       <xdr:colOff>672705</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>203598</xdr:rowOff>
@@ -28173,13 +28040,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>111</xdr:col>
+      <xdr:col>124</xdr:col>
       <xdr:colOff>298849</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>239714</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>113</xdr:col>
+      <xdr:col>126</xdr:col>
       <xdr:colOff>446486</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>182564</xdr:rowOff>
@@ -28238,13 +28105,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>111</xdr:col>
+      <xdr:col>124</xdr:col>
       <xdr:colOff>72630</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>218680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>113</xdr:col>
+      <xdr:col>126</xdr:col>
       <xdr:colOff>672705</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>180580</xdr:rowOff>
@@ -28315,13 +28182,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>111</xdr:col>
+      <xdr:col>124</xdr:col>
       <xdr:colOff>72630</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>234157</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>113</xdr:col>
+      <xdr:col>126</xdr:col>
       <xdr:colOff>672705</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>205582</xdr:rowOff>
@@ -28392,13 +28259,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>112</xdr:col>
+      <xdr:col>125</xdr:col>
       <xdr:colOff>372668</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>207566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>112</xdr:col>
+      <xdr:col>125</xdr:col>
       <xdr:colOff>372668</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>234157</xdr:rowOff>
@@ -28445,13 +28312,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>112</xdr:col>
+      <xdr:col>125</xdr:col>
       <xdr:colOff>372668</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>205582</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>112</xdr:col>
+      <xdr:col>125</xdr:col>
       <xdr:colOff>372668</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>241698</xdr:rowOff>
@@ -28498,13 +28365,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>112</xdr:col>
+      <xdr:col>125</xdr:col>
       <xdr:colOff>372668</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>203598</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>112</xdr:col>
+      <xdr:col>125</xdr:col>
       <xdr:colOff>372668</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>85409</xdr:rowOff>
@@ -28551,13 +28418,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>112</xdr:col>
+      <xdr:col>125</xdr:col>
       <xdr:colOff>372668</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>182564</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>112</xdr:col>
+      <xdr:col>125</xdr:col>
       <xdr:colOff>372668</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>218680</xdr:rowOff>
@@ -28604,13 +28471,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>457615</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>457615</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>100323</xdr:rowOff>
@@ -31511,13 +31378,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>386178</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>238375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
+      <xdr:col>61</xdr:col>
       <xdr:colOff>529052</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>164896</xdr:rowOff>
@@ -33030,13 +32897,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>457615</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>112199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>457616</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>84071</xdr:rowOff>
@@ -33079,6 +32946,617 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>223990</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114603</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>338290</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>158690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="475" name="図 474"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27740657" y="3945770"/>
+          <a:ext cx="4929716" cy="2965087"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>243418</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="478" name="右中かっこ 477"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27072168" y="4345215"/>
+          <a:ext cx="444500" cy="2354035"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>367393</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>10890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>435428</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>32503</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="479" name="図 478"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="60238822" y="11944354"/>
+          <a:ext cx="4830535" cy="3695542"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>612320</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>204108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>95</xdr:col>
+      <xdr:colOff>585106</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="左中かっこ 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="65246249" y="12627429"/>
+          <a:ext cx="653143" cy="2503714"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>128</xdr:col>
+      <xdr:colOff>42354</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>205651</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>131</xdr:col>
+      <xdr:colOff>160917</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>83731</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="480" name="図 479"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="87128068" y="6505758"/>
+          <a:ext cx="2159635" cy="1592580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>132</xdr:col>
+      <xdr:colOff>504996</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38102</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>138</xdr:col>
+      <xdr:colOff>22668</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>6352</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="481" name="図 480"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="90312139" y="5603423"/>
+          <a:ext cx="3599815" cy="3397250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>127</xdr:col>
+      <xdr:colOff>69568</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>170545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>127</xdr:col>
+      <xdr:colOff>506508</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>118837</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="482" name="右中かっこ 481"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="86474925" y="5980795"/>
+          <a:ext cx="436940" cy="2642506"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>131</xdr:col>
+      <xdr:colOff>408214</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>24839</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>132</xdr:col>
+      <xdr:colOff>379694</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19614</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="右矢印 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="89535000" y="7059732"/>
+          <a:ext cx="651837" cy="484632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>131</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>231322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>137</xdr:col>
+      <xdr:colOff>612320</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="円柱 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="89154000" y="1387929"/>
+          <a:ext cx="4667249" cy="2952750"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>DB</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>サーバー：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>IHDB66</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>データベース：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>number</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>テーブル：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>①seiri_no_kanri</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>②zumen_no_kanri</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>③seiri_no </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>④zumen_no</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>⑤zumen_no2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>134</xdr:col>
+      <xdr:colOff>136072</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>134</xdr:col>
+      <xdr:colOff>620704</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>39515</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="上矢印 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="91303929" y="4381500"/>
+          <a:ext cx="484632" cy="978408"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>135</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>136</xdr:col>
+      <xdr:colOff>130847</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>93944</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="下矢印 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="92174786" y="4435929"/>
+          <a:ext cx="484632" cy="978408"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -38215,7 +38693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -38500,7 +38978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="B103" workbookViewId="0">
       <selection activeCell="A36" sqref="A23:A36"/>
     </sheetView>
   </sheetViews>
@@ -39099,21 +39577,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DL125"/>
+  <dimension ref="A1:DY125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BG44" sqref="BG44"/>
+    <sheetView tabSelected="1" topLeftCell="DN1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="EI16" sqref="EI16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:116" ht="33">
+    <row r="1" spans="1:129" ht="33">
       <c r="A1" s="60" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="6" spans="1:116">
-      <c r="DL6" t="s">
+    <row r="6" spans="1:129">
+      <c r="DY6" t="s">
         <v>462</v>
       </c>
     </row>
@@ -39235,7 +39713,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -39693,7 +40173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="H1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>

--- a/要件定義書/C表作成_調査資料.xlsx
+++ b/要件定義書/C表作成_調査資料.xlsx
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="484">
   <si>
     <t>C表作成自動化</t>
     <rPh sb="1" eb="4">
@@ -3244,6 +3244,10 @@
     <rPh sb="7" eb="8">
       <t>コ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -10282,13 +10286,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:colOff>137584</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>209551</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>74887</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>641351</xdr:colOff>
       <xdr:row>89</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -10299,8 +10303,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4314825" y="18068926"/>
-          <a:ext cx="5361262" cy="2905124"/>
+          <a:off x="2185459" y="18481676"/>
+          <a:ext cx="5282142" cy="2905124"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10340,13 +10344,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:colOff>137584</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>74887</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>641351</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>200026</xdr:rowOff>
     </xdr:to>
@@ -10357,8 +10361,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4314825" y="15973426"/>
-          <a:ext cx="5361262" cy="1847850"/>
+          <a:off x="2185459" y="16386176"/>
+          <a:ext cx="5282142" cy="1847850"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10398,13 +10402,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>147109</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>228599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>84412</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>650876</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
@@ -10415,8 +10419,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1581150" y="1657349"/>
-          <a:ext cx="5361262" cy="6086475"/>
+          <a:off x="2194984" y="2070099"/>
+          <a:ext cx="5282142" cy="6086475"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10456,13 +10460,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>147109</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>84412</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>650876</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -10473,8 +10477,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1581150" y="8115300"/>
-          <a:ext cx="5361262" cy="3952875"/>
+          <a:off x="2194984" y="8528050"/>
+          <a:ext cx="5282142" cy="3952875"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10514,13 +10518,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>147109</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>84412</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>650876</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
@@ -10531,8 +10535,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1581150" y="12334875"/>
-          <a:ext cx="5361262" cy="3324226"/>
+          <a:off x="2194984" y="12747625"/>
+          <a:ext cx="5282142" cy="3324226"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10573,14 +10577,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>401775</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>166159</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:rowOff>122767</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10589,8 +10593,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5202375" y="2409825"/>
-          <a:ext cx="2179500" cy="914400"/>
+          <a:off x="5217192" y="2780242"/>
+          <a:ext cx="2185850" cy="930275"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -10633,13 +10637,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>401775</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:rowOff>110949</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>72849</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10648,8 +10652,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5202375" y="3790950"/>
-          <a:ext cx="2179500" cy="914400"/>
+          <a:off x="5217192" y="4185532"/>
+          <a:ext cx="2185850" cy="935567"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -10725,13 +10729,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>401775</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:rowOff>61031</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>22931</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10740,8 +10744,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5202375" y="5210175"/>
-          <a:ext cx="2179500" cy="914400"/>
+          <a:off x="5217192" y="5596114"/>
+          <a:ext cx="2185850" cy="935567"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -10818,13 +10822,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>401775</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>11113</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>216430</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10833,8 +10837,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5202375" y="6610350"/>
-          <a:ext cx="2179500" cy="914400"/>
+          <a:off x="5217192" y="7006696"/>
+          <a:ext cx="2185850" cy="935567"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -11135,8 +11139,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5202375" y="10972800"/>
-          <a:ext cx="2179500" cy="914400"/>
+          <a:off x="5217192" y="11639550"/>
+          <a:ext cx="2185850" cy="930275"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -11586,15 +11590,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>289788</xdr:colOff>
+      <xdr:colOff>289787</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>224366</xdr:rowOff>
+      <xdr:rowOff>224367</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>401776</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:colOff>401775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>144463</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11606,8 +11610,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2839215" y="922964"/>
-          <a:ext cx="499533" cy="4226788"/>
+          <a:off x="2893983" y="922171"/>
+          <a:ext cx="406930" cy="4239488"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -11647,7 +11651,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>401775</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>91899</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11659,8 +11663,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2148652" y="1613527"/>
-          <a:ext cx="1880658" cy="4226788"/>
+          <a:off x="2190015" y="1626139"/>
+          <a:ext cx="1814866" cy="4239488"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -11692,15 +11696,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>289788</xdr:colOff>
+      <xdr:colOff>289787</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>224366</xdr:rowOff>
+      <xdr:rowOff>224367</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>401776</xdr:colOff>
+      <xdr:colOff>401775</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>41981</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11712,8 +11716,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="1439040" y="2323139"/>
-          <a:ext cx="3299883" cy="4226788"/>
+          <a:off x="1484724" y="2331430"/>
+          <a:ext cx="3225448" cy="4239488"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -11752,8 +11756,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>401775</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>235480</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11765,8 +11769,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="738952" y="3023227"/>
-          <a:ext cx="4700058" cy="4226788"/>
+          <a:off x="779433" y="3036721"/>
+          <a:ext cx="4636030" cy="4239488"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -12342,7 +12346,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>各種属性定義を取得</a:t>
+            <a:t>各種属性情報を取得</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -12352,15 +12356,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:colOff>354542</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>79904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>604309</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>209021</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12369,8 +12373,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4552950" y="2514600"/>
-          <a:ext cx="1819275" cy="600075"/>
+          <a:off x="2418292" y="2937404"/>
+          <a:ext cx="2313517" cy="615950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12425,15 +12429,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>354542</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>27340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>604309</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>156457</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12442,8 +12446,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4533900" y="3971925"/>
-          <a:ext cx="1819275" cy="600075"/>
+          <a:off x="2418292" y="4345340"/>
+          <a:ext cx="2313517" cy="615950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12506,15 +12510,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>354542</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>220839</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>604309</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>106539</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12523,8 +12527,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4581525" y="5372100"/>
-          <a:ext cx="1819275" cy="600075"/>
+          <a:off x="2418292" y="5755922"/>
+          <a:ext cx="2313517" cy="615950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12587,15 +12591,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>354542</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>163512</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:colOff>604309</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>64029</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12604,8 +12608,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1809750" y="6772275"/>
-          <a:ext cx="1819275" cy="600075"/>
+          <a:off x="2418292" y="6915679"/>
+          <a:ext cx="2313517" cy="1117600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12693,9 +12697,289 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Serial</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>Serial-</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7 digit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> or </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> digit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]-</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Create</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> or </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Note/Year Sign</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -12704,13 +12988,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:colOff>354542</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>604309</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -12721,8 +13005,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4543425" y="8858250"/>
-          <a:ext cx="1819275" cy="600075"/>
+          <a:off x="2418292" y="9477375"/>
+          <a:ext cx="2313517" cy="610658"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12821,13 +13105,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>354542</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>604309</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -12838,8 +13122,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4457700" y="9953625"/>
-          <a:ext cx="1819275" cy="600075"/>
+          <a:off x="2418292" y="10593917"/>
+          <a:ext cx="2313517" cy="615950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12938,15 +13222,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:colOff>354542</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>52917</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>604309</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>197909</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12955,8 +13239,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4448175" y="11096625"/>
-          <a:ext cx="1819275" cy="600075"/>
+          <a:off x="2418292" y="11673417"/>
+          <a:ext cx="2313517" cy="875242"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13046,7 +13330,112 @@
             </a:rPr>
             <a:t>Platform</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Create(DOM)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> or </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Create(IO)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -13055,13 +13444,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:colOff>354542</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>604309</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
@@ -13072,8 +13461,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1781175" y="13173075"/>
-          <a:ext cx="1819275" cy="600075"/>
+          <a:off x="2418292" y="13887450"/>
+          <a:ext cx="2313517" cy="610658"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13172,13 +13561,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:colOff>354542</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>604309</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -13189,8 +13578,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4667250" y="14497050"/>
-          <a:ext cx="1819275" cy="600075"/>
+          <a:off x="2418292" y="15237883"/>
+          <a:ext cx="2313517" cy="615950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13289,13 +13678,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>354542</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:colOff>604309</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -13306,8 +13695,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4714875" y="16640175"/>
-          <a:ext cx="1819275" cy="600075"/>
+          <a:off x="2418292" y="17428633"/>
+          <a:ext cx="2313517" cy="615950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13406,13 +13795,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>354542</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:colOff>604309</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -13423,8 +13812,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4714875" y="18726150"/>
-          <a:ext cx="1819275" cy="600075"/>
+          <a:off x="2418292" y="19562233"/>
+          <a:ext cx="2313517" cy="615950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13487,13 +13876,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
+      <xdr:colOff>354542</xdr:colOff>
       <xdr:row>85</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>604309</xdr:colOff>
       <xdr:row>87</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -13504,8 +13893,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2698296" y="21052971"/>
-          <a:ext cx="1802947" cy="613683"/>
+          <a:off x="2418292" y="20927483"/>
+          <a:ext cx="2313517" cy="610659"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16577,7 +16966,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>図枠テンプレートに</a:t>
+            <a:t>図枠テンプレートの</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -16585,7 +16974,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>入力した値を反映</a:t>
+            <a:t>属性定義に入力値を反映</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -19238,7 +19627,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>年記号「◁」を作図</a:t>
+            <a:t>年記号「◁」（テキスト）を作図</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -19955,15 +20344,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>62</xdr:col>
-      <xdr:colOff>361850</xdr:colOff>
+      <xdr:colOff>457099</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>203492</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>65</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
+      <xdr:rowOff>222542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>96048</xdr:rowOff>
+      <xdr:rowOff>115098</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19972,8 +20361,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="37101136" y="7483313"/>
-          <a:ext cx="1774472" cy="1117199"/>
+          <a:off x="42976699" y="7309142"/>
+          <a:ext cx="2295625" cy="1083181"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -20018,15 +20407,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>等）、属性等で</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ピクチャ内を検索する</a:t>
+            <a:t>等）、属性等でピクチャ内を検索する</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -21007,8 +21388,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38034517" y="7083746"/>
-          <a:ext cx="1971675" cy="942975"/>
+          <a:off x="46949917" y="7236146"/>
+          <a:ext cx="1971675" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21322,7 +21703,7 @@
       <xdr:rowOff>228601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>80</xdr:col>
+      <xdr:col>82</xdr:col>
       <xdr:colOff>457199</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
@@ -21378,13 +21759,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>76</xdr:col>
+      <xdr:col>78</xdr:col>
       <xdr:colOff>479499</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>79</xdr:col>
+      <xdr:col>81</xdr:col>
       <xdr:colOff>185957</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
@@ -21435,13 +21816,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>76</xdr:col>
+      <xdr:col>78</xdr:col>
       <xdr:colOff>481880</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>133353</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>79</xdr:col>
+      <xdr:col>81</xdr:col>
       <xdr:colOff>183576</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>19053</xdr:rowOff>
@@ -21492,13 +21873,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>76</xdr:col>
+      <xdr:col>78</xdr:col>
       <xdr:colOff>375590</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>157802</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>79</xdr:col>
+      <xdr:col>81</xdr:col>
       <xdr:colOff>289866</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>119702</xdr:rowOff>
@@ -21631,13 +22012,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>76</xdr:col>
+      <xdr:col>78</xdr:col>
       <xdr:colOff>251114</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>58429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>79</xdr:col>
+      <xdr:col>81</xdr:col>
       <xdr:colOff>414342</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>193350</xdr:rowOff>
@@ -21709,7 +22090,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>77</xdr:col>
+      <xdr:col>79</xdr:col>
       <xdr:colOff>409580</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>109518</xdr:rowOff>
@@ -21763,7 +22144,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>79</xdr:col>
+      <xdr:col>81</xdr:col>
       <xdr:colOff>355586</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>71418</xdr:rowOff>
@@ -21817,13 +22198,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>76</xdr:col>
+      <xdr:col>78</xdr:col>
       <xdr:colOff>375590</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>132076</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>79</xdr:col>
+      <xdr:col>81</xdr:col>
       <xdr:colOff>289866</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>80121</xdr:rowOff>
@@ -21883,15 +22264,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>73</xdr:col>
-      <xdr:colOff>529404</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>171173</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>262804</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>44680</xdr:rowOff>
+      <xdr:colOff>607985</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171448</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>471486</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -21900,15 +22281,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="42941631" y="4777809"/>
-          <a:ext cx="1785605" cy="1085780"/>
+          <a:off x="50671385" y="5353048"/>
+          <a:ext cx="2606701" cy="2038351"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 99835"/>
-            <a:gd name="adj2" fmla="val 84472"/>
-            <a:gd name="adj3" fmla="val 145238"/>
-            <a:gd name="adj4" fmla="val 111109"/>
+            <a:gd name="adj1" fmla="val 53566"/>
+            <a:gd name="adj2" fmla="val 100595"/>
+            <a:gd name="adj3" fmla="val 65267"/>
+            <a:gd name="adj4" fmla="val 123352"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="19050">
@@ -21969,10 +22350,16 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>等）、属性等で</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:t>等）、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
             <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -21986,10 +22373,145 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>ピクチャ内を検索する</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:t>属性等でピクチャ内を検索する</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
             <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>※IO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>マークでも同様の手法を取ることが出来るかの検討の為、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TOYO TIRE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>様に対象図面をご確認頂いている。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（→ 質疑表 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.59</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -21998,13 +22520,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>76</xdr:col>
+      <xdr:col>78</xdr:col>
       <xdr:colOff>375590</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>18848</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>79</xdr:col>
+      <xdr:col>81</xdr:col>
       <xdr:colOff>289866</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>194628</xdr:rowOff>
@@ -22063,13 +22585,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>77</xdr:col>
+      <xdr:col>79</xdr:col>
       <xdr:colOff>674762</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>193350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>77</xdr:col>
+      <xdr:col>79</xdr:col>
       <xdr:colOff>674762</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>132076</xdr:rowOff>
@@ -22116,13 +22638,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>77</xdr:col>
+      <xdr:col>79</xdr:col>
       <xdr:colOff>674762</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>80121</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>77</xdr:col>
+      <xdr:col>79</xdr:col>
       <xdr:colOff>674762</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>18848</xdr:rowOff>
@@ -22169,13 +22691,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>77</xdr:col>
+      <xdr:col>79</xdr:col>
       <xdr:colOff>674762</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>194628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>77</xdr:col>
+      <xdr:col>79</xdr:col>
       <xdr:colOff>674762</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>133353</xdr:rowOff>
@@ -22222,13 +22744,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>77</xdr:col>
+      <xdr:col>79</xdr:col>
       <xdr:colOff>674762</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>4663</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>79</xdr:col>
+      <xdr:col>81</xdr:col>
       <xdr:colOff>414342</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>18848</xdr:rowOff>
@@ -22278,13 +22800,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>77</xdr:col>
+      <xdr:col>79</xdr:col>
       <xdr:colOff>674762</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>119702</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>77</xdr:col>
+      <xdr:col>79</xdr:col>
       <xdr:colOff>674762</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>58429</xdr:rowOff>
@@ -22331,13 +22853,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>77</xdr:col>
+      <xdr:col>79</xdr:col>
       <xdr:colOff>674762</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>77</xdr:col>
+      <xdr:col>79</xdr:col>
       <xdr:colOff>674762</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>157802</xdr:rowOff>
@@ -22384,16 +22906,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>81</xdr:col>
+      <xdr:col>83</xdr:col>
       <xdr:colOff>340522</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>228601</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>86</xdr:col>
+      <xdr:rowOff>228602</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>88</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -22402,8 +22924,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="46974922" y="723901"/>
-          <a:ext cx="3278978" cy="8458199"/>
+          <a:off x="55449451" y="1140281"/>
+          <a:ext cx="3251763" cy="7119256"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -22446,13 +22968,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>82</xdr:col>
+      <xdr:col>84</xdr:col>
       <xdr:colOff>415530</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>85</xdr:col>
+      <xdr:col>87</xdr:col>
       <xdr:colOff>115493</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
@@ -22503,16 +23025,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>82</xdr:col>
+      <xdr:col>84</xdr:col>
       <xdr:colOff>415530</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>235747</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>85</xdr:col>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>99675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>87</xdr:col>
       <xdr:colOff>115493</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>130972</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>239828</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -22521,8 +23043,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="47735730" y="8160547"/>
-          <a:ext cx="1757363" cy="638175"/>
+          <a:off x="56204816" y="7134568"/>
+          <a:ext cx="1741034" cy="630010"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -22560,13 +23082,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>82</xdr:col>
+      <xdr:col>84</xdr:col>
       <xdr:colOff>308373</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>155734</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>85</xdr:col>
+      <xdr:col>87</xdr:col>
       <xdr:colOff>222649</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>117634</xdr:rowOff>
@@ -22652,13 +23174,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>82</xdr:col>
+      <xdr:col>84</xdr:col>
       <xdr:colOff>308373</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>54293</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>85</xdr:col>
+      <xdr:col>87</xdr:col>
       <xdr:colOff>222649</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>16193</xdr:rowOff>
@@ -22744,26 +23266,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>82</xdr:col>
+      <xdr:col>84</xdr:col>
       <xdr:colOff>308373</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>200502</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>85</xdr:col>
+      <xdr:rowOff>198393</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>87</xdr:col>
       <xdr:colOff>222649</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>152877</xdr:rowOff>
+      <xdr:rowOff>160292</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="240" name="正方形/長方形 239"/>
+        <xdr:cNvPr id="241" name="正方形/長方形 240"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="47628573" y="5401152"/>
-          <a:ext cx="1971676" cy="942975"/>
+          <a:off x="56097659" y="5763714"/>
+          <a:ext cx="1955347" cy="941614"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22800,7 +23322,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>図枠作成機能で入力した</a:t>
+            <a:t>安全コード（円＋文字）</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -22824,7 +23346,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>安全コードを取得</a:t>
+            <a:t>を作成</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -22836,81 +23358,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>82</xdr:col>
-      <xdr:colOff>308373</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>89536</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>85</xdr:col>
-      <xdr:colOff>222649</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>51436</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="241" name="正方形/長方形 240"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="47628573" y="6776086"/>
-          <a:ext cx="1971676" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>安全コード（円＋文字）を作成</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>83</xdr:col>
       <xdr:colOff>608411</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>83</xdr:col>
+      <xdr:col>85</xdr:col>
       <xdr:colOff>608412</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>155734</xdr:rowOff>
@@ -22957,13 +23411,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>83</xdr:col>
+      <xdr:col>85</xdr:col>
       <xdr:colOff>608411</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>117634</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>83</xdr:col>
+      <xdr:col>85</xdr:col>
       <xdr:colOff>608411</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>54293</xdr:rowOff>
@@ -23010,29 +23464,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>83</xdr:col>
-      <xdr:colOff>608411</xdr:colOff>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>605690</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>16193</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>83</xdr:col>
-      <xdr:colOff>608411</xdr:colOff>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>605690</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>200502</xdr:rowOff>
+      <xdr:rowOff>198393</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="246" name="直線矢印コネクタ 245"/>
+        <xdr:cNvPr id="247" name="直線矢印コネクタ 246"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="238" idx="2"/>
-          <a:endCxn id="240" idx="0"/>
+          <a:endCxn id="241" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="48614411" y="4969193"/>
-          <a:ext cx="0" cy="431959"/>
+          <a:off x="57075333" y="5336586"/>
+          <a:ext cx="0" cy="427128"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -23063,69 +23517,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>83</xdr:col>
-      <xdr:colOff>608411</xdr:colOff>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>605690</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>152877</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>83</xdr:col>
-      <xdr:colOff>608411</xdr:colOff>
+      <xdr:rowOff>160292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>605690</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>89536</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="247" name="直線矢印コネクタ 246"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="240" idx="2"/>
-          <a:endCxn id="241" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="48614411" y="6344127"/>
-          <a:ext cx="0" cy="431959"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>83</xdr:col>
-      <xdr:colOff>608411</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>51436</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>83</xdr:col>
-      <xdr:colOff>608412</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>235747</xdr:rowOff>
+      <xdr:rowOff>99675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -23137,8 +23538,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="48614411" y="7728586"/>
-          <a:ext cx="1" cy="431961"/>
+          <a:off x="57075333" y="6705328"/>
+          <a:ext cx="0" cy="429240"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -23169,16 +23570,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>87</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>640774</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>103</xdr:col>
-      <xdr:colOff>533401</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>40822</xdr:rowOff>
+      <xdr:col>105</xdr:col>
+      <xdr:colOff>481447</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>176892</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -23187,8 +23588,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="59191071" y="1140279"/>
-          <a:ext cx="11419116" cy="19896364"/>
+          <a:off x="59151488" y="1140279"/>
+          <a:ext cx="11406745" cy="22903542"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -23227,14 +23628,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>96</xdr:col>
-      <xdr:colOff>108139</xdr:colOff>
+      <xdr:col>98</xdr:col>
+      <xdr:colOff>108138</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>98</xdr:col>
-      <xdr:colOff>493902</xdr:colOff>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>493901</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
@@ -23245,8 +23646,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="53600539" y="1562100"/>
-          <a:ext cx="1757363" cy="638175"/>
+          <a:off x="66609956" y="1946564"/>
+          <a:ext cx="1771218" cy="627784"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -23284,16 +23685,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>96</xdr:col>
-      <xdr:colOff>108139</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>26536</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>98</xdr:col>
-      <xdr:colOff>493902</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>166689</xdr:rowOff>
+      <xdr:colOff>108138</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>155187</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>493901</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>52884</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -23302,8 +23703,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="66102782" y="20287572"/>
-          <a:ext cx="1746477" cy="630010"/>
+          <a:off x="65422424" y="23042401"/>
+          <a:ext cx="1746477" cy="632483"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -23341,13 +23742,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>96</xdr:col>
+      <xdr:col>98</xdr:col>
       <xdr:colOff>982</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>153679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>98</xdr:col>
+      <xdr:col>100</xdr:col>
       <xdr:colOff>601058</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>106054</xdr:rowOff>
@@ -23359,8 +23760,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="53493382" y="2630179"/>
-          <a:ext cx="1971676" cy="942975"/>
+          <a:off x="66502800" y="2993861"/>
+          <a:ext cx="1985531" cy="922193"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23457,13 +23858,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>96</xdr:col>
+      <xdr:col>98</xdr:col>
       <xdr:colOff>982</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>40658</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>98</xdr:col>
+      <xdr:col>100</xdr:col>
       <xdr:colOff>601058</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>2558</xdr:rowOff>
@@ -23475,8 +23876,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="53493382" y="4003058"/>
-          <a:ext cx="1971676" cy="952500"/>
+          <a:off x="66502800" y="4335567"/>
+          <a:ext cx="1985531" cy="931718"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23549,14 +23950,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>95</xdr:col>
-      <xdr:colOff>514505</xdr:colOff>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>514504</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>81316</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>99</xdr:col>
-      <xdr:colOff>87536</xdr:colOff>
+      <xdr:col>101</xdr:col>
+      <xdr:colOff>87535</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>240825</xdr:rowOff>
     </xdr:to>
@@ -23567,8 +23968,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="53321105" y="6767866"/>
-          <a:ext cx="2316231" cy="654809"/>
+          <a:off x="66323595" y="7043225"/>
+          <a:ext cx="2343940" cy="644418"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
           <a:avLst>
@@ -23621,16 +24022,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>95</xdr:col>
+      <xdr:col>97</xdr:col>
       <xdr:colOff>516886</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>177346</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>99</xdr:col>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>240434</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>101</xdr:col>
       <xdr:colOff>85154</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>91926</xdr:rowOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>155013</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -23639,8 +24040,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="65831172" y="19213739"/>
-          <a:ext cx="2289696" cy="649366"/>
+          <a:off x="65150815" y="21971041"/>
+          <a:ext cx="2289696" cy="649365"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
           <a:avLst>
@@ -23693,13 +24094,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>95</xdr:col>
+      <xdr:col>97</xdr:col>
       <xdr:colOff>340104</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>175429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>99</xdr:col>
+      <xdr:col>101</xdr:col>
       <xdr:colOff>261936</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>77763</xdr:rowOff>
@@ -23711,8 +24112,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="53146704" y="7852579"/>
-          <a:ext cx="2665032" cy="645284"/>
+          <a:off x="66149195" y="8107156"/>
+          <a:ext cx="2692741" cy="629698"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
           <a:avLst>
@@ -23761,16 +24162,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>95</xdr:col>
+      <xdr:col>97</xdr:col>
       <xdr:colOff>340104</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>85954</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>99</xdr:col>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>146568</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>101</xdr:col>
       <xdr:colOff>261936</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>242742</xdr:rowOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>60901</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -23779,8 +24180,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="65654390" y="18142633"/>
-          <a:ext cx="2643260" cy="646645"/>
+          <a:off x="64974033" y="20897461"/>
+          <a:ext cx="2643260" cy="649119"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
           <a:avLst>
@@ -23845,13 +24246,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>95</xdr:col>
+      <xdr:col>97</xdr:col>
       <xdr:colOff>552243</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>146996</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>99</xdr:col>
+      <xdr:col>101</xdr:col>
       <xdr:colOff>49797</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>113660</xdr:rowOff>
@@ -23863,8 +24264,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="53358843" y="10300646"/>
-          <a:ext cx="2240754" cy="1700214"/>
+          <a:off x="66361334" y="10503269"/>
+          <a:ext cx="2268463" cy="1663846"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -23956,13 +24357,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>96</xdr:col>
+      <xdr:col>98</xdr:col>
       <xdr:colOff>982</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>12367</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>98</xdr:col>
+      <xdr:col>100</xdr:col>
       <xdr:colOff>601058</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>212392</xdr:rowOff>
@@ -23974,8 +24375,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="53493382" y="8927767"/>
-          <a:ext cx="1971676" cy="942975"/>
+          <a:off x="66502800" y="9156367"/>
+          <a:ext cx="1985531" cy="927389"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -24024,7 +24425,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>96</xdr:col>
+      <xdr:col>98</xdr:col>
       <xdr:colOff>547259</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>226198</xdr:rowOff>
@@ -24078,7 +24479,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>99</xdr:col>
+      <xdr:col>101</xdr:col>
       <xdr:colOff>88453</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>49986</xdr:rowOff>
@@ -24132,13 +24533,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>96</xdr:col>
+      <xdr:col>98</xdr:col>
       <xdr:colOff>982</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>48264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>98</xdr:col>
+      <xdr:col>100</xdr:col>
       <xdr:colOff>601058</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>10164</xdr:rowOff>
@@ -24150,8 +24551,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="53493382" y="12430764"/>
-          <a:ext cx="1971676" cy="952500"/>
+          <a:off x="66502800" y="12586628"/>
+          <a:ext cx="1985531" cy="931718"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -24200,7 +24601,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>画面表示</a:t>
+            <a:t>画面表示（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>EXE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>起動）</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -24212,14 +24637,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>96</xdr:col>
-      <xdr:colOff>229583</xdr:colOff>
+      <xdr:col>98</xdr:col>
+      <xdr:colOff>229582</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>192418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>98</xdr:col>
-      <xdr:colOff>372458</xdr:colOff>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>372457</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>135268</xdr:rowOff>
     </xdr:to>
@@ -24230,8 +24655,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="53721983" y="13813168"/>
-          <a:ext cx="1514475" cy="933450"/>
+          <a:off x="65543868" y="14085311"/>
+          <a:ext cx="1503589" cy="922564"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualInput">
           <a:avLst/>
@@ -24277,16 +24702,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>96</xdr:col>
+      <xdr:col>98</xdr:col>
       <xdr:colOff>982</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>64347</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>98</xdr:col>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>124961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>100</xdr:col>
       <xdr:colOff>601058</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>26246</xdr:rowOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>86859</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -24295,8 +24720,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="65995625" y="15426811"/>
-          <a:ext cx="1960790" cy="941614"/>
+          <a:off x="65315268" y="18181640"/>
+          <a:ext cx="1960790" cy="941612"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -24345,16 +24770,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>96</xdr:col>
+      <xdr:col>98</xdr:col>
       <xdr:colOff>982</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>205780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>98</xdr:col>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>23939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>100</xdr:col>
       <xdr:colOff>601058</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>158155</xdr:rowOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>221243</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -24363,8 +24788,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="65995625" y="16792887"/>
-          <a:ext cx="1960790" cy="932089"/>
+          <a:off x="65315268" y="19550189"/>
+          <a:ext cx="1960790" cy="932090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -24413,16 +24838,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>99</xdr:col>
+      <xdr:col>101</xdr:col>
       <xdr:colOff>566740</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>64347</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>102</xdr:col>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>124961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>104</xdr:col>
       <xdr:colOff>481016</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>26246</xdr:rowOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>86859</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -24431,8 +24856,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="68602454" y="15426811"/>
-          <a:ext cx="1955348" cy="941614"/>
+          <a:off x="67922097" y="18181640"/>
+          <a:ext cx="1955348" cy="941612"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -24481,14 +24906,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>97</xdr:col>
-      <xdr:colOff>301020</xdr:colOff>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>301021</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>113660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>97</xdr:col>
-      <xdr:colOff>301020</xdr:colOff>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>301021</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>48264</xdr:rowOff>
     </xdr:to>
@@ -24502,8 +24927,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54479220" y="12000860"/>
-          <a:ext cx="0" cy="429904"/>
+          <a:off x="67495566" y="12167115"/>
+          <a:ext cx="0" cy="419513"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -24534,16 +24959,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>99</xdr:col>
+      <xdr:col>101</xdr:col>
       <xdr:colOff>49797</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7864</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>101</xdr:col>
-      <xdr:colOff>183699</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>64347</xdr:rowOff>
+      <xdr:col>103</xdr:col>
+      <xdr:colOff>183700</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>124961</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -24555,8 +24980,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="68085511" y="11451471"/>
-          <a:ext cx="1494617" cy="3975340"/>
+          <a:off x="67405154" y="11451471"/>
+          <a:ext cx="1494617" cy="6730169"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -24587,16 +25012,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>97</xdr:col>
+      <xdr:col>99</xdr:col>
       <xdr:colOff>301020</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>10164</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>97</xdr:col>
-      <xdr:colOff>301021</xdr:colOff>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>301020</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>38113</xdr:rowOff>
+      <xdr:rowOff>39746</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -24608,8 +25033,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54479220" y="13383264"/>
-          <a:ext cx="1" cy="523249"/>
+          <a:off x="66295663" y="13658128"/>
+          <a:ext cx="0" cy="519439"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -24640,29 +25065,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>97</xdr:col>
+      <xdr:col>99</xdr:col>
       <xdr:colOff>301020</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>135268</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>97</xdr:col>
-      <xdr:colOff>301021</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>64347</xdr:rowOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>162482</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>301020</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>124961</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="288" name="直線矢印コネクタ 287"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="280" idx="2"/>
+          <a:stCxn id="510" idx="2"/>
           <a:endCxn id="282" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="66976020" y="15007875"/>
-          <a:ext cx="1" cy="418936"/>
+        <a:xfrm>
+          <a:off x="66295663" y="17729303"/>
+          <a:ext cx="0" cy="452337"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -24693,16 +25118,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>97</xdr:col>
+      <xdr:col>99</xdr:col>
       <xdr:colOff>301020</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>26246</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>97</xdr:col>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>86859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>99</xdr:col>
       <xdr:colOff>301020</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>205780</xdr:rowOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>23939</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -24714,8 +25139,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="66976020" y="16368425"/>
-          <a:ext cx="0" cy="424462"/>
+          <a:off x="66295663" y="19123252"/>
+          <a:ext cx="0" cy="426937"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -24746,16 +25171,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>97</xdr:col>
+      <xdr:col>99</xdr:col>
       <xdr:colOff>301020</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>158155</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>97</xdr:col>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>221243</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>99</xdr:col>
       <xdr:colOff>301020</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>85954</xdr:rowOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>146568</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -24767,8 +25192,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="66976020" y="17724976"/>
-          <a:ext cx="0" cy="417657"/>
+          <a:off x="66295663" y="20482279"/>
+          <a:ext cx="0" cy="415182"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -24799,16 +25224,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>97</xdr:col>
+      <xdr:col>99</xdr:col>
       <xdr:colOff>301020</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>242742</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>97</xdr:col>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>60901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>99</xdr:col>
       <xdr:colOff>301020</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>177346</xdr:rowOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>240434</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -24820,7 +25245,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="66976020" y="18789278"/>
+          <a:off x="66295663" y="21546580"/>
           <a:ext cx="0" cy="424461"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -24852,16 +25277,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>97</xdr:col>
-      <xdr:colOff>301020</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>26246</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>101</xdr:col>
-      <xdr:colOff>183699</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>205780</xdr:rowOff>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>301021</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>86858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>103</xdr:col>
+      <xdr:colOff>183701</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>23938</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -24873,8 +25298,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="68065843" y="15278602"/>
-          <a:ext cx="424462" cy="2604108"/>
+          <a:off x="67384249" y="18034666"/>
+          <a:ext cx="426937" cy="2604108"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -24907,14 +25332,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>97</xdr:col>
-      <xdr:colOff>301020</xdr:colOff>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>301021</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>212392</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>97</xdr:col>
-      <xdr:colOff>301020</xdr:colOff>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>301021</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>146996</xdr:rowOff>
     </xdr:to>
@@ -24928,8 +25353,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54479220" y="9870742"/>
-          <a:ext cx="0" cy="429904"/>
+          <a:off x="67495566" y="10083756"/>
+          <a:ext cx="0" cy="419513"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -24960,14 +25385,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>97</xdr:col>
-      <xdr:colOff>301020</xdr:colOff>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>301021</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>77763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>97</xdr:col>
-      <xdr:colOff>301020</xdr:colOff>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>301021</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>12367</xdr:rowOff>
     </xdr:to>
@@ -24981,8 +25406,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54479220" y="8497863"/>
-          <a:ext cx="0" cy="429904"/>
+          <a:off x="67495566" y="8736854"/>
+          <a:ext cx="0" cy="419513"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -25013,13 +25438,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>97</xdr:col>
+      <xdr:col>99</xdr:col>
       <xdr:colOff>301020</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>240825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>97</xdr:col>
+      <xdr:col>99</xdr:col>
       <xdr:colOff>301021</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>175429</xdr:rowOff>
@@ -25033,9 +25458,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="54479220" y="7422675"/>
-          <a:ext cx="1" cy="429904"/>
+        <a:xfrm>
+          <a:off x="67495565" y="7687643"/>
+          <a:ext cx="1" cy="419513"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -25066,13 +25491,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>97</xdr:col>
+      <xdr:col>99</xdr:col>
       <xdr:colOff>301020</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>146712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>97</xdr:col>
+      <xdr:col>99</xdr:col>
       <xdr:colOff>301021</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>81316</xdr:rowOff>
@@ -25086,9 +25511,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="54479220" y="6337962"/>
-          <a:ext cx="1" cy="429904"/>
+        <a:xfrm flipH="1">
+          <a:off x="67495565" y="6623712"/>
+          <a:ext cx="1" cy="419513"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -25119,14 +25544,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>97</xdr:col>
-      <xdr:colOff>301020</xdr:colOff>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>301021</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>106054</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>97</xdr:col>
-      <xdr:colOff>301020</xdr:colOff>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>301021</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>40658</xdr:rowOff>
     </xdr:to>
@@ -25140,8 +25565,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54479220" y="3573154"/>
-          <a:ext cx="0" cy="429904"/>
+          <a:off x="67495566" y="3916054"/>
+          <a:ext cx="0" cy="419513"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -25172,13 +25597,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>97</xdr:col>
+      <xdr:col>99</xdr:col>
       <xdr:colOff>301020</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>97</xdr:col>
+      <xdr:col>99</xdr:col>
       <xdr:colOff>301021</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>153679</xdr:rowOff>
@@ -25192,9 +25617,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="54479220" y="2200275"/>
-          <a:ext cx="1" cy="429904"/>
+        <a:xfrm>
+          <a:off x="67495565" y="2574348"/>
+          <a:ext cx="1" cy="419513"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -25225,16 +25650,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>97</xdr:col>
+      <xdr:col>99</xdr:col>
       <xdr:colOff>301020</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>91926</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>97</xdr:col>
-      <xdr:colOff>301021</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>26536</xdr:rowOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>155013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>301020</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>155187</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -25246,8 +25671,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="66976020" y="19863105"/>
-          <a:ext cx="1" cy="424467"/>
+          <a:off x="66295663" y="22620406"/>
+          <a:ext cx="0" cy="421995"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -25279,15 +25704,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>91</xdr:col>
-      <xdr:colOff>670753</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>80564</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>94</xdr:col>
-      <xdr:colOff>581106</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>220851</xdr:rowOff>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>96</xdr:col>
+      <xdr:colOff>608321</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -25296,15 +25721,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="63263610" y="16177814"/>
-          <a:ext cx="1951425" cy="1120001"/>
+          <a:off x="63036450" y="17430750"/>
+          <a:ext cx="3408671" cy="1295400"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
             <a:gd name="adj1" fmla="val 54980"/>
             <a:gd name="adj2" fmla="val 99390"/>
-            <a:gd name="adj3" fmla="val -22330"/>
-            <a:gd name="adj4" fmla="val 140848"/>
+            <a:gd name="adj3" fmla="val 70051"/>
+            <a:gd name="adj4" fmla="val 125236"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="19050">
@@ -25389,1766 +25814,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>はアルファベットに変換している</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>105</xdr:col>
-      <xdr:colOff>90489</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>228601</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>110</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="337" name="角丸四角形 336"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="59755089" y="723901"/>
-          <a:ext cx="3986211" cy="14039850"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 3818"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>詳細化（手動）機能</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>106</xdr:col>
-      <xdr:colOff>559595</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>109</xdr:col>
-      <xdr:colOff>259557</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="338" name="楕円 337"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="60909995" y="1562100"/>
-          <a:ext cx="1757362" cy="628650"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>開始</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>106</xdr:col>
-      <xdr:colOff>559595</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>169072</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>109</xdr:col>
-      <xdr:colOff>259558</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>64297</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="339" name="楕円 338"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="60909995" y="13542172"/>
-          <a:ext cx="1757363" cy="638175"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>終了</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>106</xdr:col>
-      <xdr:colOff>452439</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>56853</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>109</xdr:col>
-      <xdr:colOff>366714</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>18753</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="340" name="正方形/長方形 339"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="60802839" y="2781003"/>
-          <a:ext cx="1971675" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>INI</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ファイルから詳細化対象とするブランド</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>No</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>と詳細化後の書式設定を取得</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>106</xdr:col>
-      <xdr:colOff>452439</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>113706</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>109</xdr:col>
-      <xdr:colOff>366714</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>75606</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="341" name="正方形/長方形 340"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="60802839" y="4323756"/>
-          <a:ext cx="1971675" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>INI</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ファイルから属性定義を取得</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>106</xdr:col>
-      <xdr:colOff>452439</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>236640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>109</xdr:col>
-      <xdr:colOff>366714</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>208065</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="360" name="正方形/長方形 359"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="60802839" y="8904390"/>
-          <a:ext cx="1971675" cy="962025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>編集文字の元</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>PIC</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>を検索</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>106</xdr:col>
-      <xdr:colOff>681039</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>170559</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>109</xdr:col>
-      <xdr:colOff>138113</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>113409</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="364" name="フローチャート: 手操作入力 363"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="61031439" y="5866509"/>
-          <a:ext cx="1514474" cy="933450"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartManualInput">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>詳細化する編集文字を選択</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>106</xdr:col>
-      <xdr:colOff>452439</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>112221</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>109</xdr:col>
-      <xdr:colOff>366714</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>74121</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="367" name="正方形/長方形 366"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="60802839" y="11999421"/>
-          <a:ext cx="1971675" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>円周上の編集文字の削除とバルーン配置</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>106</xdr:col>
-      <xdr:colOff>452439</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>55368</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>109</xdr:col>
-      <xdr:colOff>366714</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>17268</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="368" name="正方形/長方形 367"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="60802839" y="10456668"/>
-          <a:ext cx="1971675" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>表に編集文字、通し番号を出力</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>108</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>75606</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>108</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>16254</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="371" name="直線矢印コネクタ 370"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="341" idx="2"/>
-          <a:endCxn id="364" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="61788676" y="5276256"/>
-          <a:ext cx="1" cy="683598"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>108</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>113409</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>108</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>54057</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="372" name="直線矢印コネクタ 371"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="364" idx="2"/>
-          <a:endCxn id="386" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="61788676" y="6799959"/>
-          <a:ext cx="1" cy="683598"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>108</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>17268</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>108</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>112221</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="374" name="直線矢印コネクタ 373"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="368" idx="2"/>
-          <a:endCxn id="367" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="61788677" y="11409168"/>
-          <a:ext cx="0" cy="590253"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>108</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>208065</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>108</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>55368</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="378" name="直線矢印コネクタ 377"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="360" idx="2"/>
-          <a:endCxn id="368" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="61788677" y="9866415"/>
-          <a:ext cx="0" cy="590253"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>108</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>151212</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>108</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>236640</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="381" name="直線矢印コネクタ 380"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="386" idx="2"/>
-          <a:endCxn id="360" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="61788677" y="8323662"/>
-          <a:ext cx="0" cy="580728"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>108</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>18753</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>108</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>113706</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="382" name="直線矢印コネクタ 381"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="340" idx="2"/>
-          <a:endCxn id="341" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="61788677" y="3733503"/>
-          <a:ext cx="0" cy="590253"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>108</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>108</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>56853</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="383" name="直線矢印コネクタ 382"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="338" idx="4"/>
-          <a:endCxn id="340" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="61788676" y="2190750"/>
-          <a:ext cx="1" cy="590253"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>108</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>74121</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>108</xdr:col>
-      <xdr:colOff>66677</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>169072</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="384" name="直線矢印コネクタ 383"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="367" idx="2"/>
-          <a:endCxn id="339" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="61788677" y="12951921"/>
-          <a:ext cx="0" cy="590251"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>106</xdr:col>
-      <xdr:colOff>678658</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>208362</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>109</xdr:col>
-      <xdr:colOff>140495</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>151212</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="386" name="フローチャート: 手操作入力 385"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="61029058" y="7390212"/>
-          <a:ext cx="1519237" cy="933450"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartManualInput">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>バルーン番号を</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>入力</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>96</xdr:col>
-      <xdr:colOff>982</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>184812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>98</xdr:col>
-      <xdr:colOff>601058</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>146712</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="278" name="正方形/長方形 277"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="53493382" y="5385462"/>
-          <a:ext cx="1971676" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>INI</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ファイル</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>から属性定義を取得</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>97</xdr:col>
-      <xdr:colOff>301020</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>2558</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>97</xdr:col>
-      <xdr:colOff>301020</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>184812</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="322" name="直線矢印コネクタ 321"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="255" idx="2"/>
-          <a:endCxn id="278" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="54479220" y="4955558"/>
-          <a:ext cx="0" cy="429904"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>112</xdr:col>
-      <xdr:colOff>300039</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>228601</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>121</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="342" name="角丸四角形 341"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="64765239" y="723901"/>
-          <a:ext cx="5872161" cy="9467849"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 3818"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>各ピクチャの配置機能</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>113</xdr:col>
-      <xdr:colOff>419102</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>116</xdr:col>
-      <xdr:colOff>119064</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="343" name="楕円 342"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="65570102" y="1562100"/>
-          <a:ext cx="1757362" cy="628650"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>開始</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>113</xdr:col>
-      <xdr:colOff>419102</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>64297</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>116</xdr:col>
-      <xdr:colOff>119065</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>216697</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="357" name="楕円 356"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="65570102" y="8979697"/>
-          <a:ext cx="1757363" cy="647700"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>終了</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>113</xdr:col>
-      <xdr:colOff>311946</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>62389</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>116</xdr:col>
-      <xdr:colOff>226221</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>24289</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="358" name="正方形/長方形 357"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="65462946" y="2786539"/>
-          <a:ext cx="1971675" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>INI</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ファイルからプラットフォームデータを取得</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>113</xdr:col>
-      <xdr:colOff>311946</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>124778</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>116</xdr:col>
-      <xdr:colOff>226221</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>86678</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="363" name="正方形/長方形 362"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="65462946" y="4334828"/>
-          <a:ext cx="1971675" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>INI</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ファイルからプラットフォームデータを取得</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>113</xdr:col>
-      <xdr:colOff>311946</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>187167</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>116</xdr:col>
-      <xdr:colOff>226221</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>149067</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="366" name="正方形/長方形 365"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="65462946" y="5883117"/>
-          <a:ext cx="1971675" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Platform</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>マーク配置チェック</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>116</xdr:col>
-      <xdr:colOff>595212</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>114022</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>120</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="376" name="線吹き出し 1 (枠付き) 375"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="67803612" y="5314672"/>
-          <a:ext cx="2414687" cy="1676677"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout1">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 52783"/>
-            <a:gd name="adj2" fmla="val 93"/>
-            <a:gd name="adj3" fmla="val 72417"/>
-            <a:gd name="adj4" fmla="val -19574"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Platform</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>マーク類定義機能と同様に、</a:t>
+            <a:t>はアルファベットに変換している。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -27161,54 +25827,6 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>特性データ（ブランド</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>No</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>等）、属性等でピクチャ内を検索する</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>。</a:t>
-          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:schemeClr val="dk1"/>
@@ -27221,6 +25839,1907 @@
         </a:p>
         <a:p>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>既存システムと同じ仕様にしているが、その仕様が正しいかを現在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TOYO TIRE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>様にご確認頂いている（→ 質疑</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No.58</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>107</xdr:col>
+      <xdr:colOff>90489</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>112</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="337" name="角丸四角形 336"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="59755089" y="723901"/>
+          <a:ext cx="3986211" cy="14039850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3818"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>詳細化（手動）機能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>108</xdr:col>
+      <xdr:colOff>559595</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>111</xdr:col>
+      <xdr:colOff>259557</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="338" name="楕円 337"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="60909995" y="1562100"/>
+          <a:ext cx="1757362" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>108</xdr:col>
+      <xdr:colOff>559595</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>169072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>111</xdr:col>
+      <xdr:colOff>259558</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>64297</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="339" name="楕円 338"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="60909995" y="13542172"/>
+          <a:ext cx="1757363" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>終了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>108</xdr:col>
+      <xdr:colOff>452439</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>56853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>111</xdr:col>
+      <xdr:colOff>366714</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>18753</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="340" name="正方形/長方形 339"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="60802839" y="2781003"/>
+          <a:ext cx="1971675" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ファイルから詳細化対象とするブランド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>と詳細化後の書式設定を取得</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>108</xdr:col>
+      <xdr:colOff>452439</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>113706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>111</xdr:col>
+      <xdr:colOff>366714</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>75606</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="341" name="正方形/長方形 340"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="60802839" y="4323756"/>
+          <a:ext cx="1971675" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ファイルから属性定義を取得</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>108</xdr:col>
+      <xdr:colOff>452439</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>236640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>111</xdr:col>
+      <xdr:colOff>366714</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>208065</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="360" name="正方形/長方形 359"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="60802839" y="8904390"/>
+          <a:ext cx="1971675" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>編集文字の元</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PIC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>を検索</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>108</xdr:col>
+      <xdr:colOff>681039</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>170559</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>111</xdr:col>
+      <xdr:colOff>138113</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>113409</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="364" name="フローチャート: 手操作入力 363"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="61031439" y="5866509"/>
+          <a:ext cx="1514474" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualInput">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>詳細化する編集文字を選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>108</xdr:col>
+      <xdr:colOff>452439</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>112221</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>111</xdr:col>
+      <xdr:colOff>366714</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>74121</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="367" name="正方形/長方形 366"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="60802839" y="11999421"/>
+          <a:ext cx="1971675" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>円周上の編集文字の削除とバルーン配置</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>108</xdr:col>
+      <xdr:colOff>452439</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>55368</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>111</xdr:col>
+      <xdr:colOff>366714</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>17268</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="368" name="正方形/長方形 367"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="60802839" y="10456668"/>
+          <a:ext cx="1971675" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>表に編集文字、通し番号を出力</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>110</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>75606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>110</xdr:col>
+      <xdr:colOff>66677</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>16254</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="371" name="直線矢印コネクタ 370"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="341" idx="2"/>
+          <a:endCxn id="364" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="61788676" y="5276256"/>
+          <a:ext cx="1" cy="683598"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>110</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>113409</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>110</xdr:col>
+      <xdr:colOff>66677</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>54057</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="372" name="直線矢印コネクタ 371"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="364" idx="2"/>
+          <a:endCxn id="386" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="61788676" y="6799959"/>
+          <a:ext cx="1" cy="683598"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>110</xdr:col>
+      <xdr:colOff>66677</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>17268</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>110</xdr:col>
+      <xdr:colOff>66677</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>112221</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="374" name="直線矢印コネクタ 373"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="368" idx="2"/>
+          <a:endCxn id="367" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="61788677" y="11409168"/>
+          <a:ext cx="0" cy="590253"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>110</xdr:col>
+      <xdr:colOff>66677</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>208065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>110</xdr:col>
+      <xdr:colOff>66677</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>55368</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="378" name="直線矢印コネクタ 377"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="360" idx="2"/>
+          <a:endCxn id="368" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="61788677" y="9866415"/>
+          <a:ext cx="0" cy="590253"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>110</xdr:col>
+      <xdr:colOff>66677</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>151212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>110</xdr:col>
+      <xdr:colOff>66677</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>236640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="381" name="直線矢印コネクタ 380"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="386" idx="2"/>
+          <a:endCxn id="360" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="61788677" y="8323662"/>
+          <a:ext cx="0" cy="580728"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>110</xdr:col>
+      <xdr:colOff>66677</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>18753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>110</xdr:col>
+      <xdr:colOff>66677</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>113706</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="382" name="直線矢印コネクタ 381"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="340" idx="2"/>
+          <a:endCxn id="341" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="61788677" y="3733503"/>
+          <a:ext cx="0" cy="590253"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>110</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>110</xdr:col>
+      <xdr:colOff>66677</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>56853</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="383" name="直線矢印コネクタ 382"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="338" idx="4"/>
+          <a:endCxn id="340" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="61788676" y="2190750"/>
+          <a:ext cx="1" cy="590253"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>110</xdr:col>
+      <xdr:colOff>66677</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>74121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>110</xdr:col>
+      <xdr:colOff>66677</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>169072</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="384" name="直線矢印コネクタ 383"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="367" idx="2"/>
+          <a:endCxn id="339" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="61788677" y="12951921"/>
+          <a:ext cx="0" cy="590251"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>108</xdr:col>
+      <xdr:colOff>678658</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>208362</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>111</xdr:col>
+      <xdr:colOff>140495</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>151212</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="386" name="フローチャート: 手操作入力 385"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="61029058" y="7390212"/>
+          <a:ext cx="1519237" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualInput">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>バルーン番号を</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>入力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>98</xdr:col>
+      <xdr:colOff>982</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>184812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>601058</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>146712</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="278" name="正方形/長方形 277"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66502800" y="5691994"/>
+          <a:ext cx="1985531" cy="931718"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ファイル</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>から属性定義を取得</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>301021</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>2558</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>301021</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>184812</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="322" name="直線矢印コネクタ 321"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="255" idx="2"/>
+          <a:endCxn id="278" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="67495566" y="5267285"/>
+          <a:ext cx="0" cy="424709"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>114</xdr:col>
+      <xdr:colOff>300039</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>123</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="342" name="角丸四角形 341"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="64765239" y="723901"/>
+          <a:ext cx="5872161" cy="9467849"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3818"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>各ピクチャの配置機能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>115</xdr:col>
+      <xdr:colOff>419102</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>118</xdr:col>
+      <xdr:colOff>119064</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="343" name="楕円 342"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="65570102" y="1562100"/>
+          <a:ext cx="1757362" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>開始</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>115</xdr:col>
+      <xdr:colOff>419102</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>64297</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>118</xdr:col>
+      <xdr:colOff>119065</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>216697</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="357" name="楕円 356"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="65570102" y="8979697"/>
+          <a:ext cx="1757363" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>終了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>115</xdr:col>
+      <xdr:colOff>311946</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>62389</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>118</xdr:col>
+      <xdr:colOff>226221</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>24289</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="358" name="正方形/長方形 357"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="65462946" y="2786539"/>
+          <a:ext cx="1971675" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ファイルからプラットフォームデータを取得</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>115</xdr:col>
+      <xdr:colOff>311946</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>124778</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>118</xdr:col>
+      <xdr:colOff>226221</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>86678</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="363" name="正方形/長方形 362"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="65462946" y="4334828"/>
+          <a:ext cx="1971675" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ファイルからプラットフォームデータを取得</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>115</xdr:col>
+      <xdr:colOff>311946</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>187167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>118</xdr:col>
+      <xdr:colOff>226221</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>149067</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="366" name="正方形/長方形 365"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="65462946" y="5883117"/>
+          <a:ext cx="1971675" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Platform</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>マーク配置チェック</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>118</xdr:col>
+      <xdr:colOff>652362</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>122</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="376" name="線吹き出し 1 (枠付き) 375"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81576762" y="4848225"/>
+          <a:ext cx="2614713" cy="2505076"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 52783"/>
+            <a:gd name="adj2" fmla="val 93"/>
+            <a:gd name="adj3" fmla="val 72417"/>
+            <a:gd name="adj4" fmla="val -19574"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Platform</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>マーク類定義機能と同様に、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>特性データ（ブランド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>等）、属性等でピクチャ内を検索する</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -27232,6 +27751,98 @@
             </a:rPr>
             <a:t>矢印マークのみ検知可能。</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>※IO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>マークでも同様の手法を取ることが出来るかの検討の為、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TOYO TIRE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>様に対象図面をご確認頂いている。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
           </a:endParaRPr>
@@ -27242,13 +27853,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>113</xdr:col>
+      <xdr:col>115</xdr:col>
       <xdr:colOff>311946</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>1906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>116</xdr:col>
+      <xdr:col>118</xdr:col>
       <xdr:colOff>226221</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>211456</xdr:rowOff>
@@ -27307,13 +27918,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>114</xdr:col>
+      <xdr:col>116</xdr:col>
       <xdr:colOff>611983</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>114</xdr:col>
+      <xdr:col>116</xdr:col>
       <xdr:colOff>611984</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>62389</xdr:rowOff>
@@ -27360,13 +27971,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>114</xdr:col>
+      <xdr:col>116</xdr:col>
       <xdr:colOff>611984</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>24289</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>114</xdr:col>
+      <xdr:col>116</xdr:col>
       <xdr:colOff>611984</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>124778</xdr:rowOff>
@@ -27413,13 +28024,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>114</xdr:col>
+      <xdr:col>116</xdr:col>
       <xdr:colOff>611984</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>86678</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>114</xdr:col>
+      <xdr:col>116</xdr:col>
       <xdr:colOff>611984</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>187167</xdr:rowOff>
@@ -27466,13 +28077,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>114</xdr:col>
+      <xdr:col>116</xdr:col>
       <xdr:colOff>611984</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>149067</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>114</xdr:col>
+      <xdr:col>116</xdr:col>
       <xdr:colOff>611984</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>1906</xdr:rowOff>
@@ -27519,13 +28130,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>114</xdr:col>
+      <xdr:col>116</xdr:col>
       <xdr:colOff>611984</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>211456</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>114</xdr:col>
+      <xdr:col>116</xdr:col>
       <xdr:colOff>611984</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>64297</xdr:rowOff>
@@ -27572,16 +28183,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>122</xdr:col>
-      <xdr:colOff>246461</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>138</xdr:col>
-      <xdr:colOff>217714</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>124</xdr:col>
+      <xdr:colOff>258007</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>10390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>140</xdr:col>
+      <xdr:colOff>562161</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -27590,8 +28201,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="83250032" y="1140279"/>
-          <a:ext cx="10856968" cy="10287000"/>
+          <a:off x="85559674" y="1163973"/>
+          <a:ext cx="11310820" cy="17348394"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -27630,16 +28241,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>124</xdr:col>
-      <xdr:colOff>179786</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>126</xdr:col>
-      <xdr:colOff>565548</xdr:colOff>
+      <xdr:colOff>203399</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>128</xdr:col>
+      <xdr:colOff>589161</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -27648,7 +28259,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="72874586" y="1562100"/>
+          <a:off x="85242599" y="1866900"/>
           <a:ext cx="1757362" cy="628650"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -27687,16 +28298,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>124</xdr:col>
-      <xdr:colOff>179786</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>216697</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>126</xdr:col>
-      <xdr:colOff>565549</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>121447</xdr:rowOff>
+      <xdr:colOff>203399</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>97965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>128</xdr:col>
+      <xdr:colOff>589162</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>12242</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -27705,8 +28316,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="72874586" y="10122697"/>
-          <a:ext cx="1757363" cy="647700"/>
+          <a:off x="85242599" y="17852565"/>
+          <a:ext cx="1757363" cy="657227"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -27744,16 +28355,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>124</xdr:col>
-      <xdr:colOff>72630</xdr:colOff>
+      <xdr:col>126</xdr:col>
+      <xdr:colOff>96243</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>236141</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>126</xdr:col>
-      <xdr:colOff>672705</xdr:colOff>
+      <xdr:rowOff>134168</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>129</xdr:col>
+      <xdr:colOff>12759</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>207566</xdr:rowOff>
+      <xdr:rowOff>93266</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -27762,8 +28373,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="72767430" y="2712641"/>
-          <a:ext cx="1971675" cy="962025"/>
+          <a:off x="85135443" y="3029768"/>
+          <a:ext cx="1973916" cy="949698"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -27869,16 +28480,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>125</xdr:col>
-      <xdr:colOff>372667</xdr:colOff>
+      <xdr:col>127</xdr:col>
+      <xdr:colOff>396280</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>125</xdr:col>
-      <xdr:colOff>372668</xdr:colOff>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>127</xdr:col>
+      <xdr:colOff>396281</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>236141</xdr:rowOff>
+      <xdr:rowOff>134168</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -27890,8 +28501,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="73753267" y="2190750"/>
-          <a:ext cx="1" cy="521891"/>
+          <a:off x="86121280" y="2495550"/>
+          <a:ext cx="1" cy="534218"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -27922,29 +28533,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>125</xdr:col>
-      <xdr:colOff>372668</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>180580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>125</xdr:col>
-      <xdr:colOff>372668</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>216697</xdr:rowOff>
+      <xdr:col>127</xdr:col>
+      <xdr:colOff>394680</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>57766</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>127</xdr:col>
+      <xdr:colOff>396281</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>97965</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="412" name="直線矢印コネクタ 411"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="416" idx="2"/>
+          <a:stCxn id="494" idx="2"/>
           <a:endCxn id="404" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="73753268" y="9591280"/>
-          <a:ext cx="0" cy="531417"/>
+          <a:off x="86119680" y="17317066"/>
+          <a:ext cx="1601" cy="535499"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -27975,16 +28586,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>124</xdr:col>
-      <xdr:colOff>72630</xdr:colOff>
+      <xdr:col>126</xdr:col>
+      <xdr:colOff>96243</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>241698</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>126</xdr:col>
-      <xdr:colOff>672705</xdr:colOff>
+      <xdr:rowOff>139724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>129</xdr:col>
+      <xdr:colOff>12759</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>203598</xdr:rowOff>
+      <xdr:rowOff>89298</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -27993,8 +28604,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="72767430" y="5689998"/>
-          <a:ext cx="1971675" cy="952500"/>
+          <a:off x="85135443" y="6007124"/>
+          <a:ext cx="1973916" cy="940174"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -28033,6 +28644,73 @@
             </a:rPr>
             <a:t>図面登録画面表示</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>EXE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>起動）</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -28040,16 +28718,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>124</xdr:col>
-      <xdr:colOff>298849</xdr:colOff>
+      <xdr:col>126</xdr:col>
+      <xdr:colOff>322462</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>239714</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>126</xdr:col>
-      <xdr:colOff>446486</xdr:colOff>
+      <xdr:rowOff>137740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>128</xdr:col>
+      <xdr:colOff>470099</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>182564</xdr:rowOff>
+      <xdr:rowOff>68264</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -28058,8 +28736,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="72993649" y="7173914"/>
-          <a:ext cx="1519237" cy="933450"/>
+          <a:off x="85361662" y="7491040"/>
+          <a:ext cx="1519237" cy="921124"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualInput">
           <a:avLst/>
@@ -28105,16 +28783,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>124</xdr:col>
-      <xdr:colOff>72630</xdr:colOff>
+      <xdr:col>126</xdr:col>
+      <xdr:colOff>96243</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>218680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>126</xdr:col>
-      <xdr:colOff>672705</xdr:colOff>
+      <xdr:rowOff>104380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>129</xdr:col>
+      <xdr:colOff>12759</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>180580</xdr:rowOff>
+      <xdr:rowOff>66280</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -28123,8 +28801,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="72767430" y="8638780"/>
-          <a:ext cx="1971675" cy="952500"/>
+          <a:off x="85135443" y="8943580"/>
+          <a:ext cx="1973916" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -28173,7 +28851,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>登録、図面保存</a:t>
+            <a:t>登録</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -28182,16 +28860,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>124</xdr:col>
-      <xdr:colOff>72630</xdr:colOff>
+      <xdr:col>126</xdr:col>
+      <xdr:colOff>96243</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>234157</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>126</xdr:col>
-      <xdr:colOff>672705</xdr:colOff>
+      <xdr:rowOff>119857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>129</xdr:col>
+      <xdr:colOff>12759</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>205582</xdr:rowOff>
+      <xdr:rowOff>91282</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -28200,8 +28878,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="72767430" y="4196557"/>
-          <a:ext cx="1971675" cy="962025"/>
+          <a:off x="85135443" y="4501357"/>
+          <a:ext cx="1973916" cy="962025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -28259,16 +28937,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>125</xdr:col>
-      <xdr:colOff>372668</xdr:colOff>
+      <xdr:col>127</xdr:col>
+      <xdr:colOff>396281</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>207566</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>125</xdr:col>
-      <xdr:colOff>372668</xdr:colOff>
+      <xdr:rowOff>93266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>127</xdr:col>
+      <xdr:colOff>396281</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>234157</xdr:rowOff>
+      <xdr:rowOff>119857</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -28280,7 +28958,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="73753268" y="3674666"/>
+          <a:off x="86121281" y="3979466"/>
           <a:ext cx="0" cy="521891"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -28312,16 +28990,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>125</xdr:col>
-      <xdr:colOff>372668</xdr:colOff>
+      <xdr:col>127</xdr:col>
+      <xdr:colOff>396281</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>205582</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>125</xdr:col>
-      <xdr:colOff>372668</xdr:colOff>
+      <xdr:rowOff>91282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>127</xdr:col>
+      <xdr:colOff>396281</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>241698</xdr:rowOff>
+      <xdr:rowOff>139724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -28333,8 +29011,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="73753268" y="5158582"/>
-          <a:ext cx="0" cy="531416"/>
+          <a:off x="86121281" y="5463382"/>
+          <a:ext cx="0" cy="543742"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -28365,16 +29043,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>125</xdr:col>
-      <xdr:colOff>372668</xdr:colOff>
+      <xdr:col>127</xdr:col>
+      <xdr:colOff>396281</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>203598</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>125</xdr:col>
-      <xdr:colOff>372668</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>85409</xdr:rowOff>
+      <xdr:rowOff>89298</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>127</xdr:col>
+      <xdr:colOff>396281</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>226155</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -28386,8 +29064,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="73753268" y="6642498"/>
-          <a:ext cx="0" cy="624761"/>
+          <a:off x="86121281" y="6947298"/>
+          <a:ext cx="0" cy="632157"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -28418,16 +29096,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>125</xdr:col>
-      <xdr:colOff>372668</xdr:colOff>
+      <xdr:col>127</xdr:col>
+      <xdr:colOff>394680</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>182564</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>125</xdr:col>
-      <xdr:colOff>372668</xdr:colOff>
+      <xdr:rowOff>68264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>127</xdr:col>
+      <xdr:colOff>396281</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>218680</xdr:rowOff>
+      <xdr:rowOff>104380</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -28438,9 +29116,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="73753268" y="8107364"/>
-          <a:ext cx="0" cy="531416"/>
+        <a:xfrm flipH="1">
+          <a:off x="86119680" y="8412164"/>
+          <a:ext cx="1601" cy="531416"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -29508,13 +30186,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
+      <xdr:colOff>418042</xdr:colOff>
       <xdr:row>102</xdr:row>
       <xdr:rowOff>123296</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
+      <xdr:colOff>667808</xdr:colOff>
       <xdr:row>105</xdr:row>
       <xdr:rowOff>2192</xdr:rowOff>
     </xdr:to>
@@ -29525,8 +30203,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2698296" y="25459796"/>
-          <a:ext cx="1802946" cy="613682"/>
+          <a:off x="2481792" y="25311629"/>
+          <a:ext cx="2313516" cy="609146"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -29555,7 +30233,23 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
@@ -29566,7 +30260,145 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Serial-Delete</a:t>
+            <a:t>Serial-[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7 digit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> or </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> digit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]-</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Delete</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -29700,13 +30532,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
+      <xdr:colOff>418042</xdr:colOff>
       <xdr:row>107</xdr:row>
       <xdr:rowOff>211742</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
+      <xdr:colOff>667808</xdr:colOff>
       <xdr:row>110</xdr:row>
       <xdr:rowOff>97442</xdr:rowOff>
     </xdr:to>
@@ -29717,8 +30549,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2698296" y="26772885"/>
-          <a:ext cx="1802946" cy="620486"/>
+          <a:off x="2481792" y="26617159"/>
+          <a:ext cx="2313516" cy="615950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -29892,13 +30724,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
+      <xdr:colOff>418042</xdr:colOff>
       <xdr:row>113</xdr:row>
       <xdr:rowOff>58662</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
+      <xdr:colOff>667808</xdr:colOff>
       <xdr:row>115</xdr:row>
       <xdr:rowOff>189291</xdr:rowOff>
     </xdr:to>
@@ -29909,8 +30741,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2698296" y="28089376"/>
-          <a:ext cx="1802946" cy="620486"/>
+          <a:off x="2481792" y="27924579"/>
+          <a:ext cx="2313516" cy="617462"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -32700,13 +33532,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
+      <xdr:colOff>418042</xdr:colOff>
       <xdr:row>135</xdr:row>
       <xdr:rowOff>177725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
+      <xdr:colOff>667808</xdr:colOff>
       <xdr:row>138</xdr:row>
       <xdr:rowOff>56621</xdr:rowOff>
     </xdr:to>
@@ -32717,8 +33549,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2698296" y="34576582"/>
-          <a:ext cx="1802946" cy="613682"/>
+          <a:off x="2481792" y="33578725"/>
+          <a:ext cx="2313516" cy="609146"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -32758,7 +33590,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Serial-Delete</a:t>
+            <a:t>C Hyou Ref. No,</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -33043,16 +33875,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>87</xdr:col>
+      <xdr:col>89</xdr:col>
       <xdr:colOff>367393</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>10890</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>94</xdr:col>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>119747</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>96</xdr:col>
       <xdr:colOff>435428</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>32503</xdr:rowOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>141360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -33067,7 +33899,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="60238822" y="11944354"/>
+          <a:off x="59558464" y="13277854"/>
           <a:ext cx="4830535" cy="3695542"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -33079,16 +33911,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>94</xdr:col>
+      <xdr:col>96</xdr:col>
       <xdr:colOff>612320</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>204108</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>95</xdr:col>
+      <xdr:col>97</xdr:col>
       <xdr:colOff>585106</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -33097,8 +33929,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="65246249" y="12627429"/>
-          <a:ext cx="653143" cy="2503714"/>
+          <a:off x="64565891" y="12627429"/>
+          <a:ext cx="653144" cy="5129892"/>
         </a:xfrm>
         <a:prstGeom prst="leftBrace">
           <a:avLst/>
@@ -33136,16 +33968,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>128</xdr:col>
-      <xdr:colOff>42354</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>205651</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>131</xdr:col>
-      <xdr:colOff>160917</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>83731</xdr:rowOff>
+      <xdr:col>130</xdr:col>
+      <xdr:colOff>161414</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>134893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>133</xdr:col>
+      <xdr:colOff>279977</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>10252</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -33160,8 +33992,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="87128068" y="6505758"/>
-          <a:ext cx="2159635" cy="1592580"/>
+          <a:off x="89934539" y="7469143"/>
+          <a:ext cx="2190251" cy="1542234"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -33172,16 +34004,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>132</xdr:col>
-      <xdr:colOff>504996</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38102</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>138</xdr:col>
-      <xdr:colOff>22668</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>6352</xdr:rowOff>
+      <xdr:col>134</xdr:col>
+      <xdr:colOff>624056</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>202747</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>140</xdr:col>
+      <xdr:colOff>141728</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>170997</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -33196,8 +34028,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="90312139" y="5603423"/>
-          <a:ext cx="3599815" cy="3397250"/>
+          <a:off x="93159431" y="6584497"/>
+          <a:ext cx="3661047" cy="3302000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -33208,16 +34040,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>127</xdr:col>
+      <xdr:col>129</xdr:col>
       <xdr:colOff>69568</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>170545</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>127</xdr:col>
+      <xdr:rowOff>56244</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>129</xdr:col>
       <xdr:colOff>506508</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>118837</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>146957</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -33226,8 +34058,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="86474925" y="5980795"/>
-          <a:ext cx="436940" cy="2642506"/>
+          <a:off x="87166168" y="5923644"/>
+          <a:ext cx="436940" cy="5539013"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst/>
@@ -33265,16 +34097,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>131</xdr:col>
-      <xdr:colOff>408214</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>24839</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>132</xdr:col>
-      <xdr:colOff>379694</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>19614</xdr:rowOff>
+      <xdr:col>133</xdr:col>
+      <xdr:colOff>527274</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>189485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>134</xdr:col>
+      <xdr:colOff>498754</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>184260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -33283,8 +34115,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="89535000" y="7059732"/>
-          <a:ext cx="651837" cy="484632"/>
+          <a:off x="92372087" y="7999985"/>
+          <a:ext cx="662042" cy="471025"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -33319,16 +34151,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>131</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>231322</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>137</xdr:col>
-      <xdr:colOff>612320</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>134</xdr:col>
+      <xdr:colOff>547684</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>139</xdr:col>
+      <xdr:colOff>525913</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>72119</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -33337,11 +34169,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="89154000" y="1387929"/>
-          <a:ext cx="4667249" cy="2952750"/>
+          <a:off x="93083059" y="3067050"/>
+          <a:ext cx="3431042" cy="2196194"/>
         </a:xfrm>
         <a:prstGeom prst="can">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj" fmla="val 14873"/>
+          </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -33366,86 +34200,83 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>DB</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>サーバー：</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>IHDB66</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>データベース：</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>number</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>テーブル：</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>①seiri_no_kanri</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>、</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>②zumen_no_kanri</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>、</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>③seiri_no </a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>、</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>④zumen_no</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>、</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>⑤zumen_no2</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -33453,16 +34284,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>134</xdr:col>
-      <xdr:colOff>136072</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>40821</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>134</xdr:col>
-      <xdr:colOff>620704</xdr:colOff>
+      <xdr:col>136</xdr:col>
+      <xdr:colOff>255132</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>39515</xdr:rowOff>
+      <xdr:rowOff>205467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>137</xdr:col>
+      <xdr:colOff>49201</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>204161</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -33471,8 +34302,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="91303929" y="4381500"/>
-          <a:ext cx="484632" cy="978408"/>
+          <a:off x="94171632" y="5396592"/>
+          <a:ext cx="484632" cy="951194"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
           <a:avLst/>
@@ -33507,16 +34338,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>135</xdr:col>
-      <xdr:colOff>326572</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>136</xdr:col>
-      <xdr:colOff>130847</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>93944</xdr:rowOff>
+      <xdr:col>137</xdr:col>
+      <xdr:colOff>445632</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>138</xdr:col>
+      <xdr:colOff>249907</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>20465</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -33525,8 +34356,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="92174786" y="4435929"/>
-          <a:ext cx="484632" cy="978408"/>
+          <a:off x="95052695" y="5451021"/>
+          <a:ext cx="494837" cy="951194"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -33557,6 +34388,1290 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>135</xdr:col>
+      <xdr:colOff>674325</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>143089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>139</xdr:col>
+      <xdr:colOff>176942</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>158720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="486" name="線吹き出し 1 (枠付き) 485"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="93900263" y="10334839"/>
+          <a:ext cx="2264867" cy="730006"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 11936"/>
+            <a:gd name="adj2" fmla="val 49969"/>
+            <a:gd name="adj3" fmla="val -72059"/>
+            <a:gd name="adj4" fmla="val 38828"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>画面表示時に内部通信（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DDE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）で</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CAD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>から取得したモデルタイトルの値を表示可能</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>98</xdr:col>
+      <xdr:colOff>982</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>64347</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>601058</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>26246</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="476" name="正方形/長方形 475"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66502800" y="15269711"/>
+          <a:ext cx="1985531" cy="931717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>入力内容を内部通信（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DDE)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>で</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CAD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>に送信</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>301020</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>135268</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>301020</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>64347</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="477" name="直線矢印コネクタ 476"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="280" idx="2"/>
+          <a:endCxn id="476" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66295663" y="15007875"/>
+          <a:ext cx="0" cy="418936"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>129</xdr:col>
+      <xdr:colOff>373300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>68792</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>133</xdr:col>
+      <xdr:colOff>285748</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="487" name="線吹き出し 1 (枠付き) 486"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="88431925" y="3100917"/>
+          <a:ext cx="2642948" cy="1613958"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100051"/>
+            <a:gd name="adj2" fmla="val 1929"/>
+            <a:gd name="adj3" fmla="val 128159"/>
+            <a:gd name="adj4" fmla="val -18929"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>この削除機能の対象は、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>DOT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>作成機能で作成した図となるが、作成機能は移植対象外のため、この処理は不要になる可能性あり。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（→質疑表 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>No. 74</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>126</xdr:col>
+      <xdr:colOff>96243</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>73453</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>129</xdr:col>
+      <xdr:colOff>3590</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>35353</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="488" name="正方形/長方形 487"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85135443" y="11884453"/>
+          <a:ext cx="1964747" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>入力値の受信完了を画面に</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>内部通信（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DDE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）で画面に送信</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>127</xdr:col>
+      <xdr:colOff>390095</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>35353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>127</xdr:col>
+      <xdr:colOff>390095</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>73453</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="489" name="直線矢印コネクタ 488"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="498" idx="2"/>
+          <a:endCxn id="488" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="86115095" y="11351053"/>
+          <a:ext cx="0" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>126</xdr:col>
+      <xdr:colOff>100827</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>73454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>129</xdr:col>
+      <xdr:colOff>8174</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>35352</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="490" name="正方形/長方形 489"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85140027" y="13370354"/>
+          <a:ext cx="1964747" cy="952498"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>画面から内部通信</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DDE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>で送信された図面保存命令を受信</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>127</xdr:col>
+      <xdr:colOff>390095</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>35353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>127</xdr:col>
+      <xdr:colOff>394679</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>73454</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="491" name="直線矢印コネクタ 490"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="488" idx="2"/>
+          <a:endCxn id="490" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="86115095" y="12836953"/>
+          <a:ext cx="4584" cy="533401"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>126</xdr:col>
+      <xdr:colOff>96243</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>84660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>129</xdr:col>
+      <xdr:colOff>12759</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>46559</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="492" name="正方形/長方形 491"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85135443" y="14867460"/>
+          <a:ext cx="1973916" cy="952499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>図面保存</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>127</xdr:col>
+      <xdr:colOff>394679</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>35352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>127</xdr:col>
+      <xdr:colOff>394680</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>84660</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="493" name="直線矢印コネクタ 492"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="490" idx="2"/>
+          <a:endCxn id="492" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="86119679" y="14322852"/>
+          <a:ext cx="1" cy="544608"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>126</xdr:col>
+      <xdr:colOff>96243</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>95867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>129</xdr:col>
+      <xdr:colOff>12759</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>57766</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="494" name="正方形/長方形 493"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85135443" y="16364567"/>
+          <a:ext cx="1973916" cy="952499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>図面保存完了を内部通信（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DDE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）で画面に送信</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>127</xdr:col>
+      <xdr:colOff>394680</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>46559</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>127</xdr:col>
+      <xdr:colOff>394680</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>95867</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="495" name="直線矢印コネクタ 494"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="492" idx="2"/>
+          <a:endCxn id="494" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="86119680" y="15819959"/>
+          <a:ext cx="0" cy="544608"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>126</xdr:col>
+      <xdr:colOff>96243</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>73454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>129</xdr:col>
+      <xdr:colOff>3590</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>35353</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="498" name="正方形/長方形 497"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85135443" y="10398554"/>
+          <a:ext cx="1964747" cy="952499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>入力値を内部通信（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DDE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）で</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CAD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>に送信</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>127</xdr:col>
+      <xdr:colOff>390095</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>127</xdr:col>
+      <xdr:colOff>394680</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>73454</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="499" name="直線矢印コネクタ 498"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="416" idx="2"/>
+          <a:endCxn id="498" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="86115095" y="9896080"/>
+          <a:ext cx="4585" cy="502474"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>98</xdr:col>
+      <xdr:colOff>229582</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>219632</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>372457</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>162482</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="510" name="フローチャート: 手操作入力 509"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="65543868" y="16806739"/>
+          <a:ext cx="1503589" cy="922564"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualInput">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>画面を閉じる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>301020</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>26246</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>301020</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>66959</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="511" name="直線矢印コネクタ 510"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="476" idx="2"/>
+          <a:endCxn id="510" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66295663" y="16368425"/>
+          <a:ext cx="0" cy="530570"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -33630,8 +35745,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9628716" y="62442"/>
-          <a:ext cx="8424756" cy="6861386"/>
+          <a:off x="9612047" y="1253067"/>
+          <a:ext cx="8410469" cy="6861386"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -39554,7 +41669,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="AF3:AP4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
@@ -39577,22 +41694,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DY125"/>
+  <dimension ref="A1:EO125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DN1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="EI16" sqref="EI16"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="11" topLeftCell="DI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:129" ht="33">
+    <row r="1" spans="1:131" ht="33">
       <c r="A1" s="60" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="6" spans="1:129">
-      <c r="DY6" t="s">
+    <row r="6" spans="1:131">
+      <c r="EA6" t="s">
         <v>462</v>
+      </c>
+    </row>
+    <row r="60" spans="145:145">
+      <c r="EO60" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="33">
@@ -39622,7 +41745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView topLeftCell="K7" workbookViewId="0"/>
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
@@ -39663,7 +41786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>

--- a/要件定義書/C表作成_調査資料.xlsx
+++ b/要件定義書/C表作成_調査資料.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27375" windowHeight="11715" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27375" windowHeight="11715" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="コマンド単位の工数" sheetId="18" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="492">
   <si>
     <t>C表作成自動化</t>
     <rPh sb="1" eb="4">
@@ -3250,12 +3250,134 @@
     <t>　</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>＜案1. コンボボックスを使用するメニュー＞</t>
+    <rPh sb="1" eb="2">
+      <t>アン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Serialのボタンを7桁と8桁に分け、それぞれのコンボボックスに「Create」、「Note/Year Sign」、「Delete」を用意する案。</t>
+    <rPh sb="12" eb="13">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>アン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜案2. 設定画面を経由するメニュー＞</t>
+    <rPh sb="1" eb="2">
+      <t>アン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケイユ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Serialのボタンを「Create」と「Delete」ボタンにまとめ、桁選択等を設定画面で行う案。</t>
+    <rPh sb="36" eb="40">
+      <t>ケタセンタクトウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>アン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Create画面：旧「7 digit -Create」、「7 digit -Note/Year Sign」、「8 digit -Create」、「8 digit -Note/Year Sign」コマンド</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Delete画面：旧「7 digit -Delete」、「8 digit -Delete」コマンド</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Serial機能のメニューの仕様が異なる以下の2案を提案。</t>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>アン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>テイアン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現行システムの操作感に近い。</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>チカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3391,6 +3513,14 @@
     </font>
     <font>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
@@ -3813,7 +3943,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4120,6 +4250,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
@@ -4144,13 +4280,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>23495</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>666748</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>61595</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4208,13 +4344,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>134620</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4297,13 +4433,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>5080</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>181611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>5080</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4346,13 +4482,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>529378</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>224039</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>186266</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>128154</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4427,13 +4563,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>390313</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>325331</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4502,13 +4638,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>390313</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>97155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>325331</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>230505</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4577,13 +4713,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>223721</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>140970</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>128471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4658,13 +4794,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4733,13 +4869,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>563879</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>224039</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>128154</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4814,13 +4950,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>616584</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>99694</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4889,13 +5025,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>486316</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>224039</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>128154</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4970,13 +5106,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>167547</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>336457</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5056,16 +5192,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>5080</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>181611</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>5080</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>652780</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>124461</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>652780</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5074,7 +5210,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4805680" y="657861"/>
+          <a:off x="4767580" y="2810511"/>
           <a:ext cx="0" cy="1542415"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5107,13 +5243,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>342807</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>358047</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5195,13 +5331,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>346617</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>11198</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>361857</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>144548</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5283,13 +5419,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>346617</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>144548</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>361857</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>39773</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5371,13 +5507,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>32973</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>206917</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5459,13 +5595,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>207552</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>222792</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5547,13 +5683,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>207552</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>11198</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>222792</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>144548</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5635,13 +5771,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>207552</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>144548</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>222792</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>39773</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5723,13 +5859,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>594677</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>219276</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>95567</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>132916</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5804,13 +5940,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>603567</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>86677</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5879,13 +6015,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>1270</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>181611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>1270</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5928,13 +6064,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>124142</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>224039</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>595312</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>128154</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6009,13 +6145,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>619760</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>99695</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6084,13 +6220,13 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>677545</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>181611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>677545</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6133,13 +6269,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>623888</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>219276</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>51753</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>132916</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6214,13 +6350,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>285115</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6289,13 +6425,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>97155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>285115</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>230505</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6364,13 +6500,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>4445</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>181611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>4445</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6413,13 +6549,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>496887</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>219276</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>162877</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>132916</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6494,13 +6630,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>589915</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6569,13 +6705,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>589915</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>97155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>230505</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6644,13 +6780,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>181611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6693,13 +6829,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>459740</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>219276</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>182245</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>132916</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6774,13 +6910,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>579437</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>62547</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6849,13 +6985,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>579437</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>97155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>62547</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>230505</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6924,13 +7060,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>40005</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>219276</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>592455</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>132916</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7005,13 +7141,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>574675</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>57785</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7080,13 +7216,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>664845</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>181611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>664845</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7129,13 +7265,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>535623</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>218959</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>150178</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>133234</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7210,13 +7346,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7285,13 +7421,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>19685</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>181611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>19685</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7334,13 +7470,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>486093</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>218959</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>226378</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>133234</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7415,13 +7551,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>422910</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7490,13 +7626,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>14605</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>181611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>14605</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7539,13 +7675,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>5080</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>181611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>5080</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7588,13 +7724,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>4445</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>181611</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>4445</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7637,13 +7773,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>524140</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>153284</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7680,13 +7816,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>562245</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>134235</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7723,13 +7859,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>543192</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>143760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7766,13 +7902,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>543191</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>124709</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7809,13 +7945,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>676540</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>124709</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7852,13 +7988,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>530490</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>115181</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7895,13 +8031,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>530490</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>115183</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7938,13 +8074,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>530490</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>96134</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7981,13 +8117,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>559069</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>134234</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8024,13 +8160,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>540016</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>124710</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8067,13 +8203,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>540016</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>124710</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8110,13 +8246,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>559069</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>115184</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8153,13 +8289,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>540016</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>96127</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8196,13 +8332,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8256,13 +8392,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8316,13 +8452,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8370,13 +8506,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8424,13 +8560,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8478,13 +8614,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8532,13 +8668,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8586,13 +8722,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8640,13 +8776,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8694,13 +8830,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8748,13 +8884,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8802,13 +8938,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8856,13 +8992,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8916,13 +9052,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8976,13 +9112,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>238124</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9036,13 +9172,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9096,13 +9232,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9156,13 +9292,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9216,13 +9352,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>419099</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>676274</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9276,13 +9412,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9336,13 +9472,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9396,13 +9532,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9456,13 +9592,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9516,13 +9652,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9576,13 +9712,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9636,13 +9772,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9696,13 +9832,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9756,13 +9892,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9816,13 +9952,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9876,13 +10012,13 @@
     <xdr:from>
       <xdr:col>36</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9936,13 +10072,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9996,13 +10132,13 @@
     <xdr:from>
       <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10050,13 +10186,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10095,6 +10231,3489 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>23495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>61595</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="L 字 95"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="11110595"/>
+          <a:ext cx="28098749" cy="1943100"/>
+        </a:xfrm>
+        <a:prstGeom prst="corner">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 80031"/>
+            <a:gd name="adj2" fmla="val 50542"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>175261</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>134621</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>151765</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="テキスト ボックス 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="861061" y="9410700"/>
+          <a:ext cx="645160" cy="399415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="just">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1050" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>C </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Hyou</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1050" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5081</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5081</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="直線コネクタ 97"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2748281" y="9839961"/>
+          <a:ext cx="0" cy="1609090"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>529379</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>224039</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>186267</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>128154</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="テキスト ボックス 55"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1215179" y="11120639"/>
+          <a:ext cx="1028488" cy="399415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Load Drawing</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390314</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>325332</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="正方形/長方形 99"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1076114" y="10012680"/>
+          <a:ext cx="1306618" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Brand Drawing</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390314</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>97155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>325332</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>230505</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="正方形/長方形 100"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1076114" y="10498455"/>
+          <a:ext cx="1306618" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>C Hyou Ref. No,</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>563881</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>223721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>140971</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>128471</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="テキスト ボックス 59"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3307081" y="11120321"/>
+          <a:ext cx="948690" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Pre Process</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="正方形/長方形 102"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3162301" y="10012680"/>
+          <a:ext cx="1238250" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Pre Process</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>224039</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>128154</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="テキスト ボックス 81"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5364480" y="11120639"/>
+          <a:ext cx="960121" cy="399415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Frame Data</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>616585</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99695</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="正方形/長方形 104"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5417185" y="10012680"/>
+          <a:ext cx="854710" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Create</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>486317</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>224039</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>128154</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="テキスト ボックス 83"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9401717" y="11120639"/>
+          <a:ext cx="656683" cy="399415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Serial</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5081</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5081</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="直線コネクタ 107"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4805681" y="9839961"/>
+          <a:ext cx="0" cy="1609090"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>154213</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>169453</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="正方形/長方形 108"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9069613" y="10012680"/>
+          <a:ext cx="1386840" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Create</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>154213</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>87398</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>169453</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>230273</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="正方形/長方形 110"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9069613" y="10488698"/>
+          <a:ext cx="1386840" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Delete</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>594678</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>219276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>95568</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>132916</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="テキスト ボックス 107"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12939078" y="11115876"/>
+          <a:ext cx="872490" cy="408940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Mold No.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>603568</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>86678</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="正方形/長方形 116"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12947968" y="10012680"/>
+          <a:ext cx="854710" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Mold No.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1271</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1271</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="118" name="直線コネクタ 117"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14403071" y="9839961"/>
+          <a:ext cx="0" cy="1609090"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>124143</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>224039</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>595313</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>128154</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="テキスト ボックス 112"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15211743" y="11120639"/>
+          <a:ext cx="471170" cy="399415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>TWI</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>619761</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>99696</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="正方形/長方形 119"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15021561" y="10012680"/>
+          <a:ext cx="851535" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>TWI</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>677546</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>677546</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="直線コネクタ 120"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16450946" y="9839961"/>
+          <a:ext cx="0" cy="1609090"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>623889</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>219276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>51754</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>132916</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="テキスト ボックス 115"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17083089" y="11115876"/>
+          <a:ext cx="799465" cy="408940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Platform</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>285116</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="正方形/長方形 122"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16849726" y="10012680"/>
+          <a:ext cx="1266190" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Create(DOM)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>97155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>285116</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>230505</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="正方形/長方形 123"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16849726" y="10498455"/>
+          <a:ext cx="1266190" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Create(IO)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>4446</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>4446</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="125" name="直線コネクタ 124"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="18521046" y="9839961"/>
+          <a:ext cx="0" cy="1609090"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>496888</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>219276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>162878</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>132916</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="126" name="テキスト ボックス 127"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19013488" y="11115876"/>
+          <a:ext cx="1037590" cy="408940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Safety Detail</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>589916</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>69851</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="正方形/長方形 126"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19106516" y="10012680"/>
+          <a:ext cx="851535" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Create</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>589916</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>97155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>69851</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>230505</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="128" name="正方形/長方形 127"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19106516" y="10498455"/>
+          <a:ext cx="851535" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Delete</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>6351</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>6351</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="129" name="直線コネクタ 128"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="22637751" y="9839961"/>
+          <a:ext cx="0" cy="1609090"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>459741</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>219276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>182246</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>132916</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="テキスト ボックス 132"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21033741" y="11115876"/>
+          <a:ext cx="1094105" cy="408940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Labeling Detail</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>579438</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>62548</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="131" name="正方形/長方形 130"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21153438" y="10012680"/>
+          <a:ext cx="854710" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Create</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>579438</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>97155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>62548</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>230505</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="正方形/長方形 131"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21153438" y="10498455"/>
+          <a:ext cx="854710" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Delete</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>40006</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>219276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>592456</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>132916</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="133" name="テキスト ボックス 136"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23357206" y="11115876"/>
+          <a:ext cx="552450" cy="408940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Detail</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>574676</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>57786</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="正方形/長方形 133"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23206076" y="10012680"/>
+          <a:ext cx="854710" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Create</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>664846</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>664846</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="135" name="直線コネクタ 134"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="24667846" y="9839961"/>
+          <a:ext cx="0" cy="1609090"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>535624</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>218959</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>150179</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>133234</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="136" name="テキスト ボックス 140"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25224424" y="11115559"/>
+          <a:ext cx="986155" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Drawing Pos.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="正方形/長方形 136"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25098376" y="10012680"/>
+          <a:ext cx="1238250" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Drawing Pos.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>19686</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>19686</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="138" name="直線コネクタ 137"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="26765886" y="9839961"/>
+          <a:ext cx="0" cy="1609090"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>486094</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>218959</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>226379</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>133234</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="139" name="テキスト ボックス 145"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27232294" y="11115559"/>
+          <a:ext cx="1111885" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Save Drawing</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>422911</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>289561</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="正方形/長方形 139"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27169111" y="10012680"/>
+          <a:ext cx="1238250" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="100">
+              <a:effectLst/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Save Drawing</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>14606</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>14606</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="141" name="直線コネクタ 140"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6872606" y="9839961"/>
+          <a:ext cx="0" cy="1609090"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>5081</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>5081</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="142" name="直線コネクタ 141"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12349481" y="9839961"/>
+          <a:ext cx="0" cy="1609090"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>4446</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>181611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>4446</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="143" name="直線コネクタ 142"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="20578446" y="9839961"/>
+          <a:ext cx="0" cy="1609090"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="144" name="正方形/長方形 143"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8858251" y="9544050"/>
+          <a:ext cx="1695450" cy="1438275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161476</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>18661</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="146" name="図 145"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="13944600"/>
+          <a:ext cx="3590476" cy="3114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>256886</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>85506</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="147" name="図 146"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="17992725"/>
+          <a:ext cx="2314286" cy="1752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="148" name="正方形/長方形 147"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="14373226"/>
+          <a:ext cx="2057399" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>137584</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="149" name="線吹き出し 1 (枠付き) 148"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3143250" y="14516100"/>
+          <a:ext cx="1114425" cy="518584"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 54133"/>
+            <a:gd name="adj2" fmla="val 220"/>
+            <a:gd name="adj3" fmla="val 60200"/>
+            <a:gd name="adj4" fmla="val -31750"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>桁設定</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="153" name="正方形/長方形 152"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="15268576"/>
+          <a:ext cx="3400425" cy="1228724"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>4234</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="154" name="線吹き出し 1 (枠付き) 153"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4448175" y="15344775"/>
+          <a:ext cx="1885950" cy="747184"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 54133"/>
+            <a:gd name="adj2" fmla="val 220"/>
+            <a:gd name="adj3" fmla="val 80597"/>
+            <a:gd name="adj4" fmla="val -16145"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>注記／年記号設定</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="155" name="正方形/長方形 154"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="18345151"/>
+          <a:ext cx="2228850" cy="771524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>23284</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="156" name="線吹き出し 1 (枠付き) 155"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3324225" y="18449925"/>
+          <a:ext cx="1114425" cy="518584"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 54133"/>
+            <a:gd name="adj2" fmla="val 220"/>
+            <a:gd name="adj3" fmla="val 60200"/>
+            <a:gd name="adj4" fmla="val -31750"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>桁設定</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -35687,10 +39306,10 @@
       <xdr:rowOff>62442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>246380</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>25823</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>129117</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -35707,8 +39326,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="62442"/>
-          <a:ext cx="8475980" cy="6869006"/>
+          <a:off x="0" y="1253067"/>
+          <a:ext cx="10563225" cy="8401050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -36610,15 +40229,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
+      <xdr:colOff>260350</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>52917</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>187325</xdr:rowOff>
+      <xdr:colOff>91017</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -36627,7 +40246,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10509250" y="4419600"/>
+          <a:off x="10547350" y="5676900"/>
           <a:ext cx="516467" cy="530225"/>
         </a:xfrm>
         <a:prstGeom prst="mathPlus">
@@ -39344,7 +42963,7 @@
   </sheetPr>
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -41667,22 +45286,68 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="AF3:AP4"/>
+  <dimension ref="A1:AP69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="3" spans="32:42">
-      <c r="AP3" t="s">
+    <row r="1" spans="1:42">
+      <c r="A1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" ht="24">
+      <c r="A3" s="103" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42">
+      <c r="A4" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
+      <c r="A5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42">
+      <c r="AP8" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="4" spans="32:42">
-      <c r="AF4" t="s">
+    <row r="9" spans="1:42">
+      <c r="AF9" t="s">
         <v>291</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="24">
+      <c r="A39" s="103" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="102" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="102"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="102"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -41696,7 +45361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EO125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="11" topLeftCell="DI1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="L21" sqref="L21"/>
     </sheetView>
@@ -41745,7 +45410,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>

--- a/要件定義書/C表作成_調査資料.xlsx
+++ b/要件定義書/C表作成_調査資料.xlsx
@@ -4127,6 +4127,24 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4134,6 +4152,45 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4145,15 +4202,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4163,61 +4211,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
@@ -4247,14 +4244,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13528,9 +13528,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>4234</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13539,8 +13539,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4448175" y="15344775"/>
-          <a:ext cx="1885950" cy="747184"/>
+          <a:off x="4448175" y="14154150"/>
+          <a:ext cx="2219325" cy="1066800"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -13574,12 +13574,30 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US">
               <a:effectLst/>
             </a:rPr>
             <a:t>注記／年記号設定</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Add</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>をチェックすると、注記と年記号の設定が可能になる。</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -42979,10 +42997,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5">
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="63" t="s">
         <v>298</v>
       </c>
-      <c r="C1" s="81"/>
+      <c r="C1" s="63"/>
       <c r="D1" s="56">
         <f>D2+D3</f>
         <v>133</v>
@@ -42991,10 +43009,10 @@
       <c r="L1" s="49"/>
     </row>
     <row r="2" spans="1:16" ht="25.5">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="63" t="s">
         <v>455</v>
       </c>
-      <c r="C2" s="81"/>
+      <c r="C2" s="63"/>
       <c r="D2" s="56">
         <f>SUM(L8:L35)</f>
         <v>86</v>
@@ -43003,10 +43021,10 @@
       <c r="L2" s="49"/>
     </row>
     <row r="3" spans="1:16" ht="25.5">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="63" t="s">
         <v>456</v>
       </c>
-      <c r="C3" s="81"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="56">
         <f>SUM(L38:L44)</f>
         <v>47</v>
@@ -43019,31 +43037,31 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="50"/>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="71" t="s">
         <v>299</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="72" t="s">
         <v>300</v>
       </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="85"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
     </row>
     <row r="7" spans="1:16">
       <c r="B7" s="40" t="s">
@@ -43143,7 +43161,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="51.75">
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="73" t="s">
         <v>314</v>
       </c>
       <c r="C10" s="40" t="s">
@@ -43182,7 +43200,7 @@
       <c r="P10" s="42"/>
     </row>
     <row r="11" spans="1:16" ht="51.75">
-      <c r="B11" s="86"/>
+      <c r="B11" s="73"/>
       <c r="C11" s="40" t="s">
         <v>321</v>
       </c>
@@ -43219,7 +43237,7 @@
       <c r="P11" s="42"/>
     </row>
     <row r="12" spans="1:16" ht="69">
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="73" t="s">
         <v>297</v>
       </c>
       <c r="C12" s="40" t="s">
@@ -43260,7 +43278,7 @@
       <c r="P12" s="42"/>
     </row>
     <row r="13" spans="1:16" ht="51.75">
-      <c r="B13" s="86"/>
+      <c r="B13" s="73"/>
       <c r="C13" s="40" t="s">
         <v>337</v>
       </c>
@@ -43297,29 +43315,29 @@
       <c r="P13" s="42"/>
     </row>
     <row r="14" spans="1:16" ht="31.5" customHeight="1">
-      <c r="B14" s="86"/>
-      <c r="C14" s="61" t="s">
+      <c r="B14" s="73"/>
+      <c r="C14" s="67" t="s">
         <v>344</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="67" t="s">
         <v>345</v>
       </c>
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
-      <c r="G14" s="61"/>
+      <c r="G14" s="67"/>
       <c r="H14" s="42" t="s">
         <v>346</v>
       </c>
       <c r="I14" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="J14" s="64" t="s">
+      <c r="J14" s="83" t="s">
         <v>348</v>
       </c>
-      <c r="K14" s="67" t="s">
+      <c r="K14" s="76" t="s">
         <v>333</v>
       </c>
-      <c r="L14" s="70">
+      <c r="L14" s="86">
         <v>6</v>
       </c>
       <c r="M14" s="42" t="s">
@@ -43334,72 +43352,72 @@
       <c r="P14" s="42"/>
     </row>
     <row r="15" spans="1:16" ht="17.25" customHeight="1">
-      <c r="B15" s="86"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="74" t="s">
+      <c r="B15" s="73"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="70" t="s">
         <v>352</v>
       </c>
       <c r="F15" s="40" t="s">
         <v>353</v>
       </c>
-      <c r="G15" s="62"/>
+      <c r="G15" s="68"/>
       <c r="H15" s="42" t="s">
         <v>354</v>
       </c>
       <c r="I15" s="42"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="71"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="87"/>
       <c r="M15" s="42"/>
       <c r="N15" s="42"/>
       <c r="O15" s="42"/>
       <c r="P15" s="42"/>
     </row>
     <row r="16" spans="1:16" ht="51.75">
-      <c r="B16" s="86"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="74"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="70"/>
       <c r="F16" s="40" t="s">
         <v>355</v>
       </c>
-      <c r="G16" s="62"/>
+      <c r="G16" s="68"/>
       <c r="H16" s="42" t="s">
         <v>356</v>
       </c>
       <c r="I16" s="42"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="71"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="87"/>
       <c r="M16" s="42"/>
       <c r="N16" s="42"/>
       <c r="O16" s="42"/>
       <c r="P16" s="42"/>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="86"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="74"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="70"/>
       <c r="F17" s="40" t="s">
         <v>357</v>
       </c>
-      <c r="G17" s="63"/>
+      <c r="G17" s="69"/>
       <c r="H17" s="42" t="s">
         <v>358</v>
       </c>
       <c r="I17" s="42"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="71"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="87"/>
       <c r="M17" s="42"/>
       <c r="N17" s="42"/>
       <c r="O17" s="42"/>
       <c r="P17" s="42"/>
     </row>
     <row r="18" spans="2:16" ht="51.75">
-      <c r="B18" s="86"/>
+      <c r="B18" s="73"/>
       <c r="C18" s="40" t="s">
         <v>359</v>
       </c>
@@ -43417,16 +43435,16 @@
         <v>361</v>
       </c>
       <c r="I18" s="42"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="72"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="88"/>
       <c r="M18" s="42"/>
       <c r="N18" s="42"/>
       <c r="O18" s="42"/>
       <c r="P18" s="42"/>
     </row>
     <row r="19" spans="2:16" ht="51.75">
-      <c r="B19" s="86"/>
+      <c r="B19" s="73"/>
       <c r="C19" s="40" t="s">
         <v>362</v>
       </c>
@@ -43467,7 +43485,7 @@
       <c r="P19" s="42"/>
     </row>
     <row r="20" spans="2:16" ht="69">
-      <c r="B20" s="86"/>
+      <c r="B20" s="73"/>
       <c r="C20" s="40" t="s">
         <v>371</v>
       </c>
@@ -43504,20 +43522,20 @@
       <c r="P20" s="42"/>
     </row>
     <row r="21" spans="2:16" ht="69">
-      <c r="B21" s="86"/>
-      <c r="C21" s="74" t="s">
+      <c r="B21" s="73"/>
+      <c r="C21" s="70" t="s">
         <v>374</v>
       </c>
-      <c r="D21" s="74" t="s">
+      <c r="D21" s="70" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="40" t="s">
         <v>375</v>
       </c>
-      <c r="F21" s="74" t="s">
+      <c r="F21" s="70" t="s">
         <v>364</v>
       </c>
-      <c r="G21" s="74"/>
+      <c r="G21" s="70"/>
       <c r="H21" s="47" t="s">
         <v>376</v>
       </c>
@@ -43536,19 +43554,19 @@
       <c r="M21" s="47" t="s">
         <v>379</v>
       </c>
-      <c r="N21" s="73"/>
-      <c r="O21" s="73"/>
-      <c r="P21" s="73"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
     </row>
     <row r="22" spans="2:16" ht="51.75">
-      <c r="B22" s="86"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
       <c r="E22" s="40" t="s">
         <v>380</v>
       </c>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
       <c r="H22" s="47" t="s">
         <v>381</v>
       </c>
@@ -43567,25 +43585,25 @@
       <c r="M22" s="47" t="s">
         <v>384</v>
       </c>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="73"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
     </row>
     <row r="23" spans="2:16" ht="104.25" customHeight="1">
-      <c r="B23" s="86"/>
-      <c r="C23" s="74" t="s">
+      <c r="B23" s="73"/>
+      <c r="C23" s="70" t="s">
         <v>385</v>
       </c>
-      <c r="D23" s="74" t="s">
+      <c r="D23" s="70" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="40" t="s">
         <v>386</v>
       </c>
-      <c r="F23" s="74" t="s">
+      <c r="F23" s="70" t="s">
         <v>364</v>
       </c>
-      <c r="G23" s="74"/>
+      <c r="G23" s="70"/>
       <c r="H23" s="47" t="s">
         <v>387</v>
       </c>
@@ -43604,19 +43622,19 @@
       <c r="M23" s="47" t="s">
         <v>391</v>
       </c>
-      <c r="N23" s="73"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="73"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
     </row>
     <row r="24" spans="2:16" ht="34.5">
-      <c r="B24" s="86"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
       <c r="E24" s="40" t="s">
         <v>392</v>
       </c>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
       <c r="H24" s="47" t="s">
         <v>393</v>
       </c>
@@ -43635,16 +43653,16 @@
       <c r="M24" s="47" t="s">
         <v>397</v>
       </c>
-      <c r="N24" s="73"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="73"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
     </row>
     <row r="25" spans="2:16" ht="78.75" customHeight="1">
-      <c r="B25" s="86"/>
-      <c r="C25" s="61" t="s">
+      <c r="B25" s="73"/>
+      <c r="C25" s="67" t="s">
         <v>398</v>
       </c>
-      <c r="D25" s="61" t="s">
+      <c r="D25" s="67" t="s">
         <v>16</v>
       </c>
       <c r="E25" s="40"/>
@@ -43656,13 +43674,13 @@
       <c r="I25" s="42" t="s">
         <v>400</v>
       </c>
-      <c r="J25" s="75" t="s">
+      <c r="J25" s="74" t="s">
         <v>401</v>
       </c>
-      <c r="K25" s="67" t="s">
+      <c r="K25" s="76" t="s">
         <v>402</v>
       </c>
-      <c r="L25" s="78">
+      <c r="L25" s="80">
         <v>10</v>
       </c>
       <c r="M25" s="47" t="s">
@@ -43677,51 +43695,51 @@
       <c r="P25" s="42"/>
     </row>
     <row r="26" spans="2:16" ht="17.25" customHeight="1">
-      <c r="B26" s="86"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
       <c r="E26" s="40" t="s">
         <v>386</v>
       </c>
-      <c r="F26" s="74" t="s">
+      <c r="F26" s="70" t="s">
         <v>364</v>
       </c>
-      <c r="G26" s="74"/>
+      <c r="G26" s="70"/>
       <c r="H26" s="47" t="s">
         <v>406</v>
       </c>
-      <c r="I26" s="73"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="73"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="66"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="86"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
       <c r="E27" s="40" t="s">
         <v>392</v>
       </c>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
       <c r="H27" s="47" t="s">
         <v>407</v>
       </c>
-      <c r="I27" s="73"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="73"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="66"/>
     </row>
     <row r="28" spans="2:16" ht="69">
-      <c r="B28" s="86"/>
+      <c r="B28" s="73"/>
       <c r="C28" s="40" t="s">
         <v>408</v>
       </c>
@@ -43762,7 +43780,7 @@
       <c r="P28" s="42"/>
     </row>
     <row r="29" spans="2:16" ht="51.75">
-      <c r="B29" s="86"/>
+      <c r="B29" s="73"/>
       <c r="C29" s="40" t="s">
         <v>417</v>
       </c>
@@ -43819,13 +43837,13 @@
       <c r="I30" s="47" t="s">
         <v>425</v>
       </c>
-      <c r="J30" s="75" t="s">
+      <c r="J30" s="74" t="s">
         <v>426</v>
       </c>
-      <c r="K30" s="67" t="s">
+      <c r="K30" s="76" t="s">
         <v>390</v>
       </c>
-      <c r="L30" s="61">
+      <c r="L30" s="67">
         <v>4</v>
       </c>
       <c r="M30" s="47" t="s">
@@ -43858,9 +43876,9 @@
       <c r="I31" s="47" t="s">
         <v>429</v>
       </c>
-      <c r="J31" s="76"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="63"/>
+      <c r="J31" s="75"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="69"/>
       <c r="M31" s="47" t="s">
         <v>430</v>
       </c>
@@ -44167,6 +44185,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="J14:J18"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="L14:L18"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L25:L27"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -44183,33 +44228,6 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B29"/>
     <mergeCell ref="C14:C17"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="J14:J18"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="L14:L18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations disablePrompts="1" count="1">
@@ -44376,13 +44394,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="24">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
     </row>
     <row r="3" spans="1:5" ht="56.25">
       <c r="A3" s="24">
@@ -45286,10 +45304,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:AP69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -45300,7 +45321,7 @@
       </c>
     </row>
     <row r="3" spans="1:42" ht="24">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="62" t="s">
         <v>484</v>
       </c>
     </row>
@@ -45325,20 +45346,20 @@
       </c>
     </row>
     <row r="39" spans="1:1" ht="24">
-      <c r="A39" s="103" t="s">
+      <c r="A39" s="62" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="102" t="s">
+      <c r="A40" s="61" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="102"/>
+      <c r="A41" s="61"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="102"/>
+      <c r="A51" s="61"/>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
@@ -45559,7 +45580,7 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A4" s="88"/>
+      <c r="A4" s="90"/>
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -45611,10 +45632,10 @@
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="100" t="s">
         <v>476</v>
       </c>
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="97" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="14" t="s">
@@ -45623,28 +45644,28 @@
       <c r="D7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="101" t="s">
         <v>287</v>
       </c>
-      <c r="F7" s="93" t="s">
+      <c r="F7" s="92" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="89"/>
-      <c r="B8" s="99"/>
+      <c r="B8" s="98"/>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="91"/>
-      <c r="F8" s="94"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="93"/>
     </row>
     <row r="9" spans="1:6" ht="19.5" thickBot="1">
       <c r="A9" s="89"/>
-      <c r="B9" s="99"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
@@ -45654,11 +45675,11 @@
       <c r="E9" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="94"/>
+      <c r="F9" s="93"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="89"/>
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="98" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -45667,26 +45688,26 @@
       <c r="D10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="90" t="s">
+      <c r="E10" s="101" t="s">
         <v>287</v>
       </c>
-      <c r="F10" s="94"/>
+      <c r="F10" s="93"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="89"/>
-      <c r="B11" s="99"/>
+      <c r="B11" s="98"/>
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="91"/>
-      <c r="F11" s="94"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="93"/>
     </row>
     <row r="12" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A12" s="88"/>
-      <c r="B12" s="100"/>
+      <c r="A12" s="90"/>
+      <c r="B12" s="99"/>
       <c r="C12" s="7" t="s">
         <v>7</v>
       </c>
@@ -45696,7 +45717,7 @@
       <c r="E12" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="95"/>
+      <c r="F12" s="94"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" thickBot="1">
       <c r="A13" s="11" t="s">
@@ -45731,7 +45752,7 @@
       <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="100" t="s">
         <v>479</v>
       </c>
       <c r="B15" s="14" t="s">
@@ -45746,12 +45767,12 @@
       <c r="E15" s="35" t="s">
         <v>286</v>
       </c>
-      <c r="F15" s="96" t="s">
+      <c r="F15" s="95" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="57" customHeight="1" thickBot="1">
-      <c r="A16" s="88"/>
+      <c r="A16" s="90"/>
       <c r="B16" s="7" t="s">
         <v>481</v>
       </c>
@@ -45764,10 +45785,10 @@
       <c r="E16" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="F16" s="97"/>
+      <c r="F16" s="96"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="91" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -45785,7 +45806,7 @@
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A18" s="88"/>
+      <c r="A18" s="90"/>
       <c r="B18" s="7" t="s">
         <v>7</v>
       </c>
@@ -45803,7 +45824,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="100" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="14" t="s">
@@ -45821,7 +45842,7 @@
       <c r="F19" s="15"/>
     </row>
     <row r="20" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A20" s="88"/>
+      <c r="A20" s="90"/>
       <c r="B20" s="7" t="s">
         <v>7</v>
       </c>
@@ -45890,17 +45911,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E10:E11"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="F7:F12"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -46944,13 +46965,13 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="24">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
     </row>
     <row r="5" spans="1:5" ht="56.25">
       <c r="A5" s="24">

--- a/要件定義書/C表作成_調査資料.xlsx
+++ b/要件定義書/C表作成_調査資料.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27375" windowHeight="11715" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27375" windowHeight="11715" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="コマンド単位の工数" sheetId="18" r:id="rId1"/>
@@ -4276,6 +4276,44 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161476</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>199554</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="112" name="図 111"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="12753975"/>
+          <a:ext cx="3590476" cy="3771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -7785,49 +7823,6 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="50" name="図 49"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="3095625"/>
-          <a:ext cx="1895740" cy="4201409"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>562245</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>134235</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="図 50"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7845,8 +7840,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2743200" y="3095625"/>
-          <a:ext cx="1933845" cy="4182360"/>
+          <a:off x="685800" y="3095625"/>
+          <a:ext cx="1895740" cy="4201409"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7857,20 +7852,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>543192</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>562245</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>143760</xdr:rowOff>
+      <xdr:rowOff>134235</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="図 51"/>
+        <xdr:cNvPr id="51" name="図 50"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7888,8 +7883,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="3095625"/>
-          <a:ext cx="1914792" cy="4191885"/>
+          <a:off x="2743200" y="3095625"/>
+          <a:ext cx="1933845" cy="4182360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7900,20 +7895,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>543191</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>543192</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>124709</xdr:rowOff>
+      <xdr:rowOff>143760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="図 52"/>
+        <xdr:cNvPr id="52" name="図 51"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7931,8 +7926,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7553325" y="3095625"/>
-          <a:ext cx="1905266" cy="4172834"/>
+          <a:off x="4800600" y="3095625"/>
+          <a:ext cx="1914792" cy="4191885"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7943,20 +7938,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>676540</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>543191</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>124709</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="図 53"/>
+        <xdr:cNvPr id="53" name="図 52"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7974,8 +7969,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9753600" y="3095625"/>
-          <a:ext cx="1895740" cy="4172834"/>
+          <a:off x="7553325" y="3095625"/>
+          <a:ext cx="1905266" cy="4172834"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7986,20 +7981,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>530490</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>676540</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>115181</xdr:rowOff>
+      <xdr:rowOff>124709</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="図 54"/>
+        <xdr:cNvPr id="54" name="図 53"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8017,8 +8012,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12344400" y="3095625"/>
-          <a:ext cx="1902090" cy="4163306"/>
+          <a:off x="9753600" y="3095625"/>
+          <a:ext cx="1895740" cy="4172834"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8029,20 +8024,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>530490</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>115183</xdr:rowOff>
+      <xdr:rowOff>115181</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="図 55"/>
+        <xdr:cNvPr id="55" name="図 54"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8060,8 +8055,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14401800" y="3095625"/>
-          <a:ext cx="1902090" cy="4163308"/>
+          <a:off x="12344400" y="3095625"/>
+          <a:ext cx="1902090" cy="4163306"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8072,20 +8067,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>530490</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>96134</xdr:rowOff>
+      <xdr:rowOff>115183</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="図 56"/>
+        <xdr:cNvPr id="56" name="図 55"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8103,8 +8098,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16459200" y="3095625"/>
-          <a:ext cx="1902090" cy="4144259"/>
+          <a:off x="14401800" y="3095625"/>
+          <a:ext cx="1902090" cy="4163308"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8115,20 +8110,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>559069</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>530490</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>134234</xdr:rowOff>
+      <xdr:rowOff>96134</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="図 57"/>
+        <xdr:cNvPr id="57" name="図 56"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8146,8 +8141,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18516600" y="3095625"/>
-          <a:ext cx="1930669" cy="4182359"/>
+          <a:off x="16459200" y="3095625"/>
+          <a:ext cx="1902090" cy="4144259"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8158,20 +8153,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>540016</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>559069</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>124710</xdr:rowOff>
+      <xdr:rowOff>134234</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="図 58"/>
+        <xdr:cNvPr id="58" name="図 57"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8189,8 +8184,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20574000" y="3095625"/>
-          <a:ext cx="1911616" cy="4172835"/>
+          <a:off x="18516600" y="3095625"/>
+          <a:ext cx="1930669" cy="4182359"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8201,20 +8196,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>540016</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>124710</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="図 59"/>
+        <xdr:cNvPr id="59" name="図 58"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8232,7 +8227,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22631400" y="3095625"/>
+          <a:off x="20574000" y="3095625"/>
           <a:ext cx="1911616" cy="4172835"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8244,20 +8239,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>559069</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>540016</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>115184</xdr:rowOff>
+      <xdr:rowOff>124710</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="図 60"/>
+        <xdr:cNvPr id="60" name="図 59"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8275,8 +8270,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24688800" y="3095625"/>
-          <a:ext cx="1930669" cy="4163309"/>
+          <a:off x="22631400" y="3095625"/>
+          <a:ext cx="1911616" cy="4172835"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8287,20 +8282,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>540016</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>559069</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>96127</xdr:rowOff>
+      <xdr:rowOff>115184</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="図 61"/>
+        <xdr:cNvPr id="61" name="図 60"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8318,6 +8313,49 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="24688800" y="3095625"/>
+          <a:ext cx="1930669" cy="4163309"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>540016</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>96127</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="図 61"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="26746200" y="3095625"/>
           <a:ext cx="1911616" cy="4144252"/>
         </a:xfrm>
@@ -13257,51 +13295,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>161476</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>18661</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="146" name="図 145"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="13944600"/>
-          <a:ext cx="3590476" cy="3114286"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>256886</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>85506</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13332,15 +13332,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13349,8 +13349,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="742950" y="14373226"/>
-          <a:ext cx="2057399" cy="819150"/>
+          <a:off x="742951" y="13916024"/>
+          <a:ext cx="3362324" cy="762001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13391,16 +13391,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>137584</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>99484</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13409,7 +13409,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="14516100"/>
+          <a:off x="4448175" y="14001750"/>
           <a:ext cx="1114425" cy="518584"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
@@ -13463,14 +13463,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13479,7 +13479,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="733425" y="15268576"/>
+          <a:off x="733425" y="14754226"/>
           <a:ext cx="3400425" cy="1228724"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13523,14 +13523,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13539,7 +13539,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4448175" y="14154150"/>
+          <a:off x="4448175" y="14830425"/>
           <a:ext cx="2219325" cy="1066800"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
@@ -13611,13 +13611,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13671,13 +13671,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>23284</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13737,11 +13737,255 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="150" name="正方形/長方形 149"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742951" y="13096874"/>
+          <a:ext cx="3362324" cy="762001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>232834</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="151" name="線吹き出し 1 (枠付き) 150"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4448175" y="13182600"/>
+          <a:ext cx="1228725" cy="518584"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 54133"/>
+            <a:gd name="adj2" fmla="val 220"/>
+            <a:gd name="adj3" fmla="val 63874"/>
+            <a:gd name="adj4" fmla="val -27874"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>作成面設定</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>635796</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="171" name="角丸四角形 170"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33782796" y="1131094"/>
+          <a:ext cx="5793579" cy="24253031"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3818"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>セリアル定義機能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>79996</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>193345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>406625</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>78150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="509" name="直線矢印コネクタ 231"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="505" idx="3"/>
+          <a:endCxn id="210" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="35055796" y="13233070"/>
+          <a:ext cx="1012429" cy="9828905"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -265054"/>
+            <a:gd name="adj2" fmla="val 97758"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -16334,7 +16578,360 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Serial-</a:t>
+            <a:t>Serial-Create</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>354542</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>604309</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="163" name="正方形/長方形 162"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2418292" y="9477375"/>
+          <a:ext cx="2313517" cy="610658"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>イ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Mold No.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>354542</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>604309</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="164" name="正方形/長方形 163"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2418292" y="10593917"/>
+          <a:ext cx="2313517" cy="615950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ウ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TWI</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>354542</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>52917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>604309</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>197909</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="165" name="正方形/長方形 164"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2418292" y="11673417"/>
+          <a:ext cx="2313517" cy="875242"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>エ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Platform</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -16356,18 +16953,6 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>[</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -16389,7 +16974,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>7 digit</a:t>
+            <a:t>Create(DOM)</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
@@ -16404,6 +16989,30 @@
             <a:t>」</a:t>
           </a:r>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> or </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -16413,55 +17022,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> or </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>「</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>8</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> digit</a:t>
+            <a:t>Create(IO)</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
@@ -16475,145 +17036,6 @@
             </a:rPr>
             <a:t>」</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>]-</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>[</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>「</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Create</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>」</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> or </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>「</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Note/Year Sign</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>」</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
           </a:endParaRPr>
@@ -16626,23 +17048,23 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>354542</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>604309</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="163" name="正方形/長方形 162"/>
+        <xdr:cNvPr id="166" name="正方形/長方形 165"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2418292" y="9477375"/>
+          <a:off x="2418292" y="13887450"/>
           <a:ext cx="2313517" cy="610658"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16707,7 +17129,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>イ</a:t>
+            <a:t>オ</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -16731,7 +17153,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Mold No.</a:t>
+            <a:t>Safety Detail - Create</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -16743,23 +17165,23 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>354542</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>604309</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="164" name="正方形/長方形 163"/>
+        <xdr:cNvPr id="167" name="正方形/長方形 166"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2418292" y="10593917"/>
+          <a:off x="2418292" y="15237883"/>
           <a:ext cx="2313517" cy="615950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16800,7 +17222,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>④</a:t>
+            <a:t>⑤</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -16824,7 +17246,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>ウ</a:t>
+            <a:t>ア</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -16848,7 +17270,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TWI</a:t>
+            <a:t>Labeling Detail - Create</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -16860,24 +17282,24 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>354542</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>52917</xdr:rowOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>604309</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>197909</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="165" name="正方形/長方形 164"/>
+        <xdr:cNvPr id="168" name="正方形/長方形 167"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2418292" y="11673417"/>
-          <a:ext cx="2313517" cy="875242"/>
+          <a:off x="2418292" y="17428633"/>
+          <a:ext cx="2313517" cy="615950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16917,7 +17339,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>④</a:t>
+            <a:t>⑤</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -16941,7 +17363,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>エ</a:t>
+            <a:t>イ</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -16965,462 +17387,6 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Platform</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>「</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Create(DOM)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>」</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> or </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>「</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Create(IO)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>」</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>354542</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>604309</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="166" name="正方形/長方形 165"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2418292" y="13887450"/>
-          <a:ext cx="2313517" cy="610658"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>④</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>オ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Safety Detail - Create</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>354542</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>604309</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="167" name="正方形/長方形 166"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2418292" y="15237883"/>
-          <a:ext cx="2313517" cy="615950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>⑤</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ア</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Labeling Detail - Create</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>354542</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>604309</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="168" name="正方形/長方形 167"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2418292" y="17428633"/>
-          <a:ext cx="2313517" cy="615950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>⑤</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>イ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
             <a:t>Detail - Create</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -20885,72 +20851,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>635796</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="171" name="角丸四角形 170"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="24638796" y="723900"/>
-          <a:ext cx="5750716" cy="22459950"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 3818"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>セリアル定義機能</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>384002</xdr:colOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>574502</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>83965</xdr:colOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>274465</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
@@ -20961,8 +20869,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25758602" y="1562100"/>
-          <a:ext cx="1757363" cy="638175"/>
+          <a:off x="34178702" y="1924050"/>
+          <a:ext cx="1757363" cy="619125"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -21000,16 +20908,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>386383</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>150019</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>81584</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>45244</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>576883</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>229394</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>272084</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>61119</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -21018,8 +20926,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25760983" y="21943219"/>
-          <a:ext cx="1752601" cy="638175"/>
+          <a:off x="34181083" y="24165719"/>
+          <a:ext cx="1752601" cy="784225"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -21057,16 +20965,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>251842</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>157351</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>216124</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>79436</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>442343</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>70470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>406625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>230680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -21075,8 +20983,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25626442" y="2633851"/>
-          <a:ext cx="2021682" cy="1160335"/>
+          <a:off x="34046543" y="5728320"/>
+          <a:ext cx="2021682" cy="1112710"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -21104,12 +21012,16 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>桁数が</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>7Dig</a:t>
+            <a:t>7</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>コマンド</a:t>
+            <a:t>桁</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -21119,8 +21031,8 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>656791</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:colOff>371041</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>135711</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="297133" cy="374141"/>
@@ -21131,7 +21043,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26207604" y="3707586"/>
+          <a:off x="34661041" y="6746061"/>
           <a:ext cx="297133" cy="374141"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -21172,16 +21084,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>249461</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>156013</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>218505</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>78098</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>439962</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>51120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>409006</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>211330</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -21190,8 +21102,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25624061" y="5604313"/>
-          <a:ext cx="2026444" cy="1160335"/>
+          <a:off x="34044162" y="17138970"/>
+          <a:ext cx="2026444" cy="1112710"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -21219,7 +21131,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -21228,12 +21140,9 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Note/Year Sign</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>コマンド</a:t>
-          </a:r>
+            <a:t>注記あり</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -21241,16 +21150,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>274465</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>17712</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>193502</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>217737</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>464965</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>222420</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>384002</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>184320</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -21259,8 +21168,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25649065" y="4227762"/>
-          <a:ext cx="1976437" cy="942975"/>
+          <a:off x="34069165" y="7309020"/>
+          <a:ext cx="1976437" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21306,16 +21215,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>49349</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>17712</xdr:rowOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>239849</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>222420</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>56</xdr:col>
-      <xdr:colOff>654186</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>217737</xdr:rowOff>
+      <xdr:colOff>158886</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>184320</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -21324,8 +21233,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28167149" y="4227762"/>
-          <a:ext cx="1976437" cy="942975"/>
+          <a:off x="36587249" y="7309020"/>
+          <a:ext cx="1976437" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21371,10 +21280,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>214654</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>61892</xdr:rowOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>373404</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>157142</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="333682" cy="374141"/>
     <xdr:sp macro="" textlink="">
@@ -21384,7 +21293,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27646654" y="2786042"/>
+          <a:off x="36035004" y="5814992"/>
           <a:ext cx="333682" cy="374141"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -21425,10 +21334,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>130535</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>21411</xdr:rowOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>257535</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>164286</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="297133" cy="374141"/>
     <xdr:sp macro="" textlink="">
@@ -21438,7 +21347,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26190935" y="6707961"/>
+          <a:off x="34547535" y="18204636"/>
           <a:ext cx="297133" cy="374141"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -21479,10 +21388,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>152741</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>59511</xdr:rowOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>390866</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>91261</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="333682" cy="374141"/>
     <xdr:sp macro="" textlink="">
@@ -21492,7 +21401,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27584741" y="5755461"/>
+          <a:off x="36052466" y="17179111"/>
           <a:ext cx="333682" cy="374141"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -21533,42 +21442,42 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>505446</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>16374</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>467346</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>176060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
-      <xdr:colOff>648321</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>197349</xdr:rowOff>
+      <xdr:colOff>381621</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>137960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="181" name="フローチャート: 手操作入力 180"/>
+        <xdr:cNvPr id="194" name="正方形/長方形 193"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25880046" y="7198224"/>
-          <a:ext cx="1514475" cy="923925"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartManualInput">
+          <a:off x="34071546" y="8691410"/>
+          <a:ext cx="1971675" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
+          <a:schemeClr val="accent1">
             <a:shade val="50000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -21580,8 +21489,20 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>INI</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>注記内容を入力</a:t>
+            <a:t>ファイルからセリアルのブランド</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>No</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>、文字のサイズ、間隔を取得</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -21590,42 +21511,42 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>505446</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>135625</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>467346</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>129700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
-      <xdr:colOff>648321</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>68950</xdr:rowOff>
+      <xdr:colOff>381621</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>82075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="193" name="フローチャート: 手操作入力 192"/>
+        <xdr:cNvPr id="195" name="正方形/長方形 194"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25880046" y="8555725"/>
-          <a:ext cx="1514475" cy="923925"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartManualInput">
+          <a:off x="34071546" y="10073800"/>
+          <a:ext cx="1971675" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
+          <a:schemeClr val="accent1">
             <a:shade val="50000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -21637,8 +21558,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>INI</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>年記号の有無を入力</a:t>
+            <a:t>ファイルからセリアル文字の画層、線種情報を取得</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -21647,26 +21572,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>276846</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>7226</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>191121</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>207251</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>467346</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>97480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>381621</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>59380</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="194" name="正方形/長方形 193"/>
+        <xdr:cNvPr id="202" name="正方形/長方形 201"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25651446" y="9913226"/>
-          <a:ext cx="1971675" cy="942975"/>
+          <a:off x="34071546" y="15756580"/>
+          <a:ext cx="1971675" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21694,20 +21619,16 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>INI</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ファイルからセリアルのブランド</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>No</a:t>
-          </a:r>
+            <a:t>検出したセリアルから</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>、文字のサイズ、間隔を取得</a:t>
+            <a:t>テキストの配置計算</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -21716,26 +21637,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>276846</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>145527</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>191121</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>97902</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>467346</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>203070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>381621</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>155445</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="195" name="正方形/長方形 194"/>
+        <xdr:cNvPr id="203" name="正方形/長方形 202"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25651446" y="11289777"/>
-          <a:ext cx="1971675" cy="942975"/>
+          <a:off x="34071546" y="18719670"/>
+          <a:ext cx="1971675" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21763,12 +21684,8 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>INI</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ファイルからセリアル文字の画層、線種情報を取得</a:t>
+            <a:t>注記付きセリアルテキストを作図</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -21777,26 +21694,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>276846</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>24614</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>191121</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>224639</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>467346</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>153365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>381621</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>105740</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="202" name="正方形/長方形 201"/>
+        <xdr:cNvPr id="206" name="正方形/長方形 205"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25651446" y="15131264"/>
-          <a:ext cx="1971675" cy="942975"/>
+          <a:off x="34071546" y="14383715"/>
+          <a:ext cx="1971675" cy="904875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21825,7 +21742,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>検出したセリアルから</a:t>
+            <a:t>円弧配列のテンプレート</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -21833,121 +21750,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>テキストの配置計算</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>276846</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>162915</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>191121</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>115290</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="203" name="正方形/長方形 202"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="25651446" y="16507815"/>
-          <a:ext cx="1971675" cy="942975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>セリアルテキストを作図</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>276846</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>133963</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>191121</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>86338</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="206" name="正方形/長方形 205"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="25651446" y="13754713"/>
-          <a:ext cx="1971675" cy="942975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>円弧配列のテンプレート</a:t>
+            <a:t>機能で配置した</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -21955,14 +21758,6 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>機能で配置した</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>セリアルを検出する</a:t>
           </a:r>
         </a:p>
@@ -21973,15 +21768,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>53</xdr:col>
-      <xdr:colOff>430906</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>168794</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>164306</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>61351</xdr:rowOff>
+      <xdr:colOff>30856</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>216419</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>450056</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>108976</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -21990,8 +21785,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27862906" y="13541894"/>
-          <a:ext cx="1790800" cy="1130807"/>
+          <a:off x="36378256" y="9684269"/>
+          <a:ext cx="1790800" cy="1083182"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
@@ -22045,16 +21840,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>104568</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>36178</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>363399</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>195687</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>295068</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>73815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>553899</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>233324</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -22063,8 +21858,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25479168" y="12666328"/>
-          <a:ext cx="2316231" cy="654809"/>
+          <a:off x="33899268" y="11446665"/>
+          <a:ext cx="2316231" cy="635759"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
           <a:avLst>
@@ -22117,16 +21912,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>104568</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>52228</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>363399</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>211737</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>295068</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>78150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>553899</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>237659</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -22135,8 +21930,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25479168" y="20854828"/>
-          <a:ext cx="2316231" cy="654809"/>
+          <a:off x="33899268" y="23061975"/>
+          <a:ext cx="2316231" cy="635759"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
           <a:avLst>
@@ -22190,28 +21985,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>576883</xdr:colOff>
+      <xdr:colOff>113333</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>576884</xdr:colOff>
+      <xdr:colOff>113334</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>157351</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="212" name="直線矢印コネクタ 211"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="172" idx="4"/>
-          <a:endCxn id="93" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="26637283" y="2200275"/>
-          <a:ext cx="1" cy="433576"/>
+          <a:off x="35089133" y="2543175"/>
+          <a:ext cx="1" cy="414526"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -22243,15 +22035,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>576883</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>79436</xdr:rowOff>
+      <xdr:colOff>79996</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>230680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>576884</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>17712</xdr:rowOff>
+      <xdr:colOff>79997</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>222420</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -22262,9 +22054,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="26637283" y="3794186"/>
-          <a:ext cx="1" cy="433576"/>
+        <a:xfrm flipH="1">
+          <a:off x="35055796" y="6841030"/>
+          <a:ext cx="1" cy="467990"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -22296,28 +22088,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>576883</xdr:colOff>
+      <xdr:colOff>79997</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>217737</xdr:rowOff>
+      <xdr:rowOff>78730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>576884</xdr:colOff>
+      <xdr:colOff>79997</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>156013</xdr:rowOff>
+      <xdr:rowOff>70470</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="227" name="直線矢印コネクタ 226"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="175" idx="2"/>
-          <a:endCxn id="174" idx="0"/>
+          <a:stCxn id="484" idx="2"/>
+          <a:endCxn id="93" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="26637283" y="5170737"/>
-          <a:ext cx="1" cy="433576"/>
+        <a:xfrm>
+          <a:off x="35055797" y="5260330"/>
+          <a:ext cx="0" cy="467990"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -22348,16 +22140,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>216124</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>242219</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>351768</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>17712</xdr:rowOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>406625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>150575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>542268</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>222420</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -22369,8 +22161,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27648124" y="3214019"/>
-          <a:ext cx="1507244" cy="1013743"/>
+          <a:off x="36068225" y="6284675"/>
+          <a:ext cx="1507243" cy="1024345"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -22402,28 +22194,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>576883</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>217738</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>351768</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>156014</xdr:rowOff>
+      <xdr:colOff>79996</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>184320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>542268</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>176060</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="237" name="直線矢印コネクタ 231"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="176" idx="2"/>
-          <a:endCxn id="174" idx="0"/>
+          <a:endCxn id="194" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="27679538" y="4128483"/>
-          <a:ext cx="433576" cy="2518085"/>
+          <a:off x="36081637" y="7197579"/>
+          <a:ext cx="467990" cy="2519672"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -22457,28 +22249,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>576883</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>78098</xdr:rowOff>
+      <xdr:colOff>79996</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>211330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>576884</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>108767</xdr:rowOff>
+      <xdr:colOff>79997</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>203070</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="239" name="直線矢印コネクタ 238"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="174" idx="2"/>
-          <a:endCxn id="181" idx="0"/>
+          <a:endCxn id="203" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="26637283" y="6764648"/>
-          <a:ext cx="1" cy="525969"/>
+        <a:xfrm flipH="1">
+          <a:off x="35055796" y="18251680"/>
+          <a:ext cx="1" cy="467990"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -22510,28 +22302,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>576884</xdr:colOff>
+      <xdr:colOff>79996</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>197349</xdr:rowOff>
+      <xdr:rowOff>184320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>576884</xdr:colOff>
+      <xdr:colOff>79996</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>228018</xdr:rowOff>
+      <xdr:rowOff>176060</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="242" name="直線矢印コネクタ 241"/>
+        <xdr:cNvPr id="245" name="直線矢印コネクタ 244"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="181" idx="2"/>
-          <a:endCxn id="193" idx="0"/>
+          <a:stCxn id="175" idx="2"/>
+          <a:endCxn id="194" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26637284" y="8122149"/>
-          <a:ext cx="0" cy="525969"/>
+          <a:off x="35055796" y="8223420"/>
+          <a:ext cx="0" cy="467990"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -22563,28 +22355,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>576884</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>68950</xdr:rowOff>
+      <xdr:colOff>79996</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>233324</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>576884</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>7226</xdr:rowOff>
+      <xdr:colOff>79996</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="245" name="直線矢印コネクタ 244"/>
+        <xdr:cNvPr id="249" name="直線矢印コネクタ 248"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="193" idx="2"/>
-          <a:endCxn id="194" idx="0"/>
+          <a:stCxn id="209" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26637284" y="9479650"/>
-          <a:ext cx="0" cy="433576"/>
+          <a:off x="35055796" y="12082424"/>
+          <a:ext cx="0" cy="893801"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -22616,68 +22407,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>576884</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>195687</xdr:rowOff>
+      <xdr:colOff>79996</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>137960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>576884</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>133963</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="249" name="直線矢印コネクタ 248"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="209" idx="1"/>
-          <a:endCxn id="206" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="26637284" y="13321137"/>
-          <a:ext cx="0" cy="433576"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>576884</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>207251</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>576884</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>145527</xdr:rowOff>
+      <xdr:colOff>79996</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>129700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -22689,8 +22427,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26637284" y="10856201"/>
-          <a:ext cx="0" cy="433576"/>
+          <a:off x="35055796" y="9605810"/>
+          <a:ext cx="0" cy="467990"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -22722,15 +22460,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>576884</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>97902</xdr:rowOff>
+      <xdr:colOff>79996</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>82075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>576884</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>36178</xdr:rowOff>
+      <xdr:colOff>79996</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>73815</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -22742,8 +22480,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26637284" y="12232752"/>
-          <a:ext cx="0" cy="433576"/>
+          <a:off x="35055796" y="10978675"/>
+          <a:ext cx="0" cy="467990"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -22775,15 +22513,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>576884</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>86338</xdr:rowOff>
+      <xdr:colOff>79996</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>105740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>576884</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>24614</xdr:rowOff>
+      <xdr:colOff>79996</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>97480</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -22795,8 +22533,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26637284" y="14697688"/>
-          <a:ext cx="0" cy="433576"/>
+          <a:off x="35055796" y="15288590"/>
+          <a:ext cx="0" cy="467990"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -22828,28 +22566,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>576884</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>224639</xdr:rowOff>
+      <xdr:colOff>79996</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>59380</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>576884</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>162915</xdr:rowOff>
+      <xdr:colOff>79997</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>51120</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="263" name="直線矢印コネクタ 262"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="202" idx="2"/>
-          <a:endCxn id="203" idx="0"/>
+          <a:endCxn id="174" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26637284" y="16074239"/>
-          <a:ext cx="0" cy="433576"/>
+          <a:off x="35055796" y="16670980"/>
+          <a:ext cx="1" cy="467990"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -22881,15 +22619,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>576883</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>115290</xdr:rowOff>
+      <xdr:colOff>79996</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>155445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>576884</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>53566</xdr:rowOff>
+      <xdr:colOff>79997</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>147185</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -22900,9 +22638,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="26637283" y="17450790"/>
-          <a:ext cx="1" cy="433576"/>
+        <a:xfrm>
+          <a:off x="35055796" y="19624545"/>
+          <a:ext cx="1" cy="467990"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -22934,15 +22672,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>576884</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>211737</xdr:rowOff>
+      <xdr:colOff>79996</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>237659</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>576884</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>150019</xdr:rowOff>
+      <xdr:colOff>79996</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>229394</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -22954,8 +22692,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26637284" y="21509637"/>
-          <a:ext cx="0" cy="433582"/>
+          <a:off x="35055796" y="23697734"/>
+          <a:ext cx="0" cy="467985"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -22986,35 +22724,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>576884</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>240881</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>218505</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>7226</xdr:rowOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>409006</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>131225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>257796</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>203070</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="275" name="直線矢印コネクタ 231"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="174" idx="3"/>
-          <a:endCxn id="194" idx="0"/>
+          <a:endCxn id="540" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="26637284" y="6184481"/>
-          <a:ext cx="1013221" cy="3728745"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -86487"/>
-            <a:gd name="adj2" fmla="val 93469"/>
-          </a:avLst>
+        <a:xfrm>
+          <a:off x="36070606" y="17695325"/>
+          <a:ext cx="1220390" cy="1024345"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln w="19050">
           <a:solidFill>
@@ -23042,16 +22777,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>251842</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>53566</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>216124</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>223301</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>442343</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>147185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>406625</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>78795</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -23060,8 +22795,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25626442" y="17884366"/>
-          <a:ext cx="2021682" cy="1160335"/>
+          <a:off x="34046543" y="20092535"/>
+          <a:ext cx="2021682" cy="1122235"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -23108,10 +22843,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>228168</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>99992</xdr:rowOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>418668</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>115867</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="297133" cy="374141"/>
     <xdr:sp macro="" textlink="">
@@ -23121,7 +22856,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26469543" y="18197492"/>
+          <a:off x="34708668" y="21251842"/>
           <a:ext cx="297133" cy="374141"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -23162,10 +22897,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>221799</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>183335</xdr:rowOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>491674</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>72210</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="333682" cy="374141"/>
     <xdr:sp macro="" textlink="">
@@ -23175,7 +22910,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27653799" y="18014135"/>
+          <a:off x="36153274" y="20255685"/>
           <a:ext cx="333682" cy="374141"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -23216,73 +22951,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>276846</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>161577</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>191121</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>113952</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="305" name="正方形/長方形 304"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="25651446" y="19478277"/>
-          <a:ext cx="1971675" cy="942975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>年記号「◁」（テキスト）を作図</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>576883</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>223301</xdr:rowOff>
+      <xdr:colOff>79996</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>78795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>576884</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>161577</xdr:rowOff>
+      <xdr:colOff>79997</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>70535</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -23293,9 +22971,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="26637283" y="19044701"/>
-          <a:ext cx="1" cy="433576"/>
+        <a:xfrm flipH="1">
+          <a:off x="35055796" y="21214770"/>
+          <a:ext cx="1" cy="467990"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -23327,15 +23005,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>576884</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>113952</xdr:rowOff>
+      <xdr:colOff>79996</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>86410</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>576884</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>52228</xdr:rowOff>
+      <xdr:colOff>79996</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>78150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -23347,8 +23025,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26637284" y="20421252"/>
-          <a:ext cx="0" cy="433576"/>
+          <a:off x="35055796" y="22593985"/>
+          <a:ext cx="0" cy="467990"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -23380,15 +23058,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>576884</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>138434</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>216124</xdr:colOff>
+      <xdr:colOff>79996</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>52228</xdr:rowOff>
+      <xdr:rowOff>232053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>406625</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>78150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -23400,13 +23078,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="26637284" y="18464534"/>
-          <a:ext cx="1010840" cy="2390294"/>
+          <a:off x="35055796" y="20653653"/>
+          <a:ext cx="1012429" cy="2408322"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -105536"/>
-            <a:gd name="adj2" fmla="val 90827"/>
+            <a:gd name="adj1" fmla="val -43235"/>
+            <a:gd name="adj2" fmla="val 90099"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="19050">
@@ -33526,13 +33204,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>401775</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>204259</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>523876</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>166159</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -33585,13 +33263,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>246924</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>332649</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -33649,13 +33327,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>145658</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>204259</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>433916</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -33718,13 +33396,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>289787</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>289787</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>204259</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -33771,13 +33449,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>289787</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>401775</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>185208</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -33824,13 +33502,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>418042</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>123296</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>667808</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>2192</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -33897,145 +33575,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Serial-[</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>「</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>7 digit</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>」</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> or </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>「</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>8</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> digit</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>」</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>]-</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Delete</a:t>
+            <a:t>Serial-Delete</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -34046,13 +33586,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>401775</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>54580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>523876</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>9677</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -34117,13 +33657,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>289786</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>401774</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>32129</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -34170,13 +33710,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>418042</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>211742</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>667808</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>97442</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -34238,13 +33778,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>401775</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>143026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>523876</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>104927</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -34309,13 +33849,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>289787</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>401775</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>123976</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -34362,13 +33902,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>418042</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>58662</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>667808</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>189291</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -34428,16 +33968,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>690561</xdr:colOff>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>666748</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>59532</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -34446,8 +33986,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8229600" y="22983825"/>
-          <a:ext cx="3333750" cy="6400800"/>
+          <a:off x="8286749" y="26789063"/>
+          <a:ext cx="5500687" cy="9108282"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -34487,15 +34027,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>681038</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
+      <xdr:colOff>661989</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>595313</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>45244</xdr:rowOff>
+      <xdr:colOff>576264</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -34504,8 +34044,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8910638" y="24734044"/>
-          <a:ext cx="1971675" cy="914400"/>
+          <a:off x="8948739" y="28565476"/>
+          <a:ext cx="1985963" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -34548,14 +34088,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:colOff>83344</xdr:colOff>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:colOff>464345</xdr:colOff>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -34565,8 +34105,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9020175" y="23783925"/>
-          <a:ext cx="1752601" cy="609600"/>
+          <a:off x="9060657" y="27589163"/>
+          <a:ext cx="1762126" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -34605,14 +34145,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:colOff>83344</xdr:colOff>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:colOff>464345</xdr:colOff>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -34622,8 +34162,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9020175" y="28498800"/>
-          <a:ext cx="1752601" cy="609600"/>
+          <a:off x="9060657" y="34923413"/>
+          <a:ext cx="1762126" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -34662,15 +34202,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>681038</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>147638</xdr:rowOff>
+      <xdr:colOff>661989</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>595313</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
+      <xdr:colOff>576264</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -34679,8 +34219,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8910638" y="25988963"/>
-          <a:ext cx="1971675" cy="914400"/>
+          <a:off x="8948739" y="32361189"/>
+          <a:ext cx="1985963" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -34739,15 +34279,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>681038</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>211932</xdr:rowOff>
+      <xdr:colOff>661989</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>595313</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>173832</xdr:rowOff>
+      <xdr:colOff>576264</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -34756,8 +34296,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8910638" y="27243882"/>
-          <a:ext cx="1971675" cy="914400"/>
+          <a:off x="8948739" y="33642301"/>
+          <a:ext cx="1985963" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -34852,15 +34392,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:colOff>273845</xdr:colOff>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
+      <xdr:colOff>273846</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -34872,8 +34412,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9896476" y="24393525"/>
-          <a:ext cx="0" cy="340519"/>
+          <a:off x="9941720" y="28198763"/>
+          <a:ext cx="1" cy="366713"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -34905,28 +34445,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>45244</xdr:rowOff>
+      <xdr:colOff>273846</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>147638</xdr:rowOff>
+      <xdr:colOff>273846</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="391" name="直線矢印コネクタ 390"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="375" idx="2"/>
-          <a:endCxn id="380" idx="0"/>
+          <a:endCxn id="583" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9896476" y="25648444"/>
-          <a:ext cx="0" cy="340519"/>
+          <a:off x="9941721" y="29479876"/>
+          <a:ext cx="0" cy="366713"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -34958,15 +34498,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
+      <xdr:colOff>273846</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>211932</xdr:rowOff>
+      <xdr:colOff>273846</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -34978,8 +34518,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9896476" y="26903363"/>
-          <a:ext cx="0" cy="340519"/>
+          <a:off x="9941721" y="33275589"/>
+          <a:ext cx="0" cy="366712"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -35011,14 +34551,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>173832</xdr:rowOff>
+      <xdr:colOff>273845</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:colOff>273846</xdr:colOff>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -35030,9 +34570,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9896476" y="28158282"/>
-          <a:ext cx="0" cy="340518"/>
+        <a:xfrm flipH="1">
+          <a:off x="9941720" y="34556701"/>
+          <a:ext cx="1" cy="366712"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -35063,15 +34603,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -35125,15 +34665,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>681038</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>595313</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -35190,15 +34730,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -35247,15 +34787,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -35304,15 +34844,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -35357,15 +34897,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>681038</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>595313</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -35418,15 +34958,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -35476,15 +35016,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>681038</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>83344</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>595313</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>45244</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -35534,15 +35074,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -35591,15 +35131,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -35648,15 +35188,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>83344</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -35701,15 +35241,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>681038</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>147638</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>595313</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>109538</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -35770,15 +35310,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>681038</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>211932</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>595313</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>173832</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -35920,15 +35460,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -35973,15 +35513,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -36026,15 +35566,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>45244</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>147638</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -36079,15 +35619,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>109538</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>211932</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -36132,15 +35672,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>173832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -36187,13 +35727,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -36249,13 +35789,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>681038</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>40481</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>595313</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>2381</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -36310,13 +35850,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -36367,13 +35907,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>223838</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>366713</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -36428,13 +35968,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -36485,13 +36025,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>681038</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>64293</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>595313</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>7143</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -36542,13 +36082,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>40481</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -36595,13 +36135,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>2381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>154305</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -36648,13 +36188,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>64293</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -36701,13 +36241,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>7143</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -36864,13 +36404,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>401775</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>13759</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>523876</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>220588</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -36931,13 +36471,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>246924</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>178254</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>332649</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>83004</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -36995,13 +36535,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>145658</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>13759</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>433916</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>216354</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -37064,13 +36604,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>289787</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>83004</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>289787</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>13759</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -37117,13 +36657,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>289787</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>216353</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>401775</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>239637</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -37170,13 +36710,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>418042</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>177725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>667808</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>56621</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -37473,8 +37013,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27072168" y="4345215"/>
-          <a:ext cx="444500" cy="2354035"/>
+          <a:off x="27175356" y="4253934"/>
+          <a:ext cx="447145" cy="2306410"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst/>
@@ -39309,6 +38849,976 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>467347</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>210815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>381621</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>163190</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="483" name="正方形/長方形 482"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34071547" y="3011165"/>
+          <a:ext cx="1971674" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>桁数等の入力画面を表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>586807</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>154930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>262161</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>78730</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="484" name="フローチャート: 手操作入力 483"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34191007" y="4384030"/>
+          <a:ext cx="1732754" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualInput">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>入力画面で値を入力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>442343</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>225064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>406625</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>161625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="505" name="フローチャート: 判断 504"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34046543" y="12550414"/>
+          <a:ext cx="2021682" cy="1365311"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>反セリアル側作図有</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>307541</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>135711</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="297133" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="506" name="テキスト ボックス 505"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34597541" y="13889811"/>
+          <a:ext cx="297133" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>Y</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>405154</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>109517</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="333682" cy="374141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="507" name="テキスト ボックス 506"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36066754" y="12672992"/>
+          <a:ext cx="333682" cy="374141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>N</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>79996</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>161625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>79997</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>153365</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="508" name="直線矢印コネクタ 507"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="505" idx="2"/>
+          <a:endCxn id="206" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="35055796" y="13915725"/>
+          <a:ext cx="1" cy="467990"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>467346</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>70535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>381621</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>86410</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="305" name="正方形/長方形 304"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34071546" y="21682760"/>
+          <a:ext cx="1971675" cy="911225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>年記号「◁」（テキスト）を作図</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>641971</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>203070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>556246</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>155445</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="540" name="正方形/長方形 539"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36303571" y="18719670"/>
+          <a:ext cx="1971675" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>セリアルテキストを作図</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>79997</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>163190</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>79997</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4435</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="555" name="直線矢印コネクタ 554"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="483" idx="2"/>
+          <a:endCxn id="484" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="35055797" y="3916040"/>
+          <a:ext cx="0" cy="555620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>79996</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>155445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>257796</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>78150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="576" name="直線矢印コネクタ 231"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="540" idx="2"/>
+          <a:endCxn id="210" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="34454681" y="20225660"/>
+          <a:ext cx="3437430" cy="2235200"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 93029"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>350575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>193903</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>107157</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="578" name="右中かっこ 577"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36259825" y="2991872"/>
+          <a:ext cx="447145" cy="2306410"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>226217</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>103130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>94802</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="581" name="図 580"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36826030" y="2662974"/>
+          <a:ext cx="2630835" cy="2763424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>285752</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>528350</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>37881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="582" name="図 581"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334752" y="30075188"/>
+          <a:ext cx="2314286" cy="1752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>661990</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>576263</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="583" name="正方形/長方形 582"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8948740" y="29846589"/>
+          <a:ext cx="1985961" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>桁数入力画面を表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>90887</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>42864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>456803</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>204789</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="584" name="フローチャート: 手操作入力 583"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9068200" y="31118177"/>
+          <a:ext cx="1747041" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualInput">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>入力画面で値を入力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>273846</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>273846</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>130494</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="585" name="直線矢印コネクタ 584"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="583" idx="2"/>
+          <a:endCxn id="584" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9941721" y="30751464"/>
+          <a:ext cx="0" cy="454343"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>273846</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>204789</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>273846</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="586" name="直線矢印コネクタ 585"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="584" idx="2"/>
+          <a:endCxn id="380" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9941721" y="31994477"/>
+          <a:ext cx="0" cy="366712"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>488155</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>244738</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>91848</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="587" name="右中かっこ 586"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10846593" y="29813251"/>
+          <a:ext cx="447145" cy="2306410"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -45307,10 +45817,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:AP69"/>
+  <dimension ref="A1:AP72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K65" sqref="K65"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -45366,8 +45876,8 @@
         <v>488</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
         <v>489</v>
       </c>
     </row>
@@ -45380,11 +45890,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EO125"/>
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:EO152"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="11" topLeftCell="DI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="11" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -45404,18 +45917,18 @@
         <v>483</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="33">
-      <c r="A92" s="60" t="s">
+    <row r="108" spans="1:1" ht="33">
+      <c r="A108" s="60" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="33">
-      <c r="A125" s="60" t="s">
+    <row r="152" spans="1:1" ht="33">
+      <c r="A152" s="60" t="s">
         <v>482</v>
       </c>
     </row>
